--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1287289.119690393</v>
+        <v>1282946.096289041</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2122528.737783239</v>
+        <v>2122528.737783233</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6624909.074076202</v>
+        <v>6624909.074076218</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7791748.35750493</v>
+        <v>7791748.357504927</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -676,10 +676,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>207.7206892398367</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>26.80574342287035</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>22.96189723698664</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>66.68447052885357</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>54.25015388424831</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>147.8279795613425</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>350.9493085602808</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>173.6984873560098</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -1381,16 +1381,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>95.55750459002681</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>225.7724024010751</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>115.2540412271704</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>125.1215825557433</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>233.2385090293388</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>22.96189723698664</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.9220910887695</v>
+        <v>202.5932474243366</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>72.30123682227976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>219.098573392609</v>
       </c>
       <c r="H20" t="n">
-        <v>195.6255244520054</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>97.61153143263792</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>53.03638470914613</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
-        <v>314.7099853831353</v>
+        <v>152.4706207287511</v>
       </c>
       <c r="I23" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>91.18032069999886</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2414,10 +2414,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H24" t="n">
-        <v>84.320299612958</v>
+        <v>84.32029961295804</v>
       </c>
       <c r="I24" t="n">
-        <v>37.86294566882081</v>
+        <v>37.86294566882093</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.786554340597835</v>
+        <v>3.786554340598052</v>
       </c>
       <c r="S24" t="n">
-        <v>127.6305556124798</v>
+        <v>127.6305556124799</v>
       </c>
       <c r="T24" t="n">
         <v>173.9226398638123</v>
@@ -2490,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>115.3691528057787</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.085091836852</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>76.19311257242664</v>
       </c>
     </row>
     <row r="26">
@@ -2563,19 +2563,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
-        <v>314.7099853831353</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270194</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>196.488718535022</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>350.771389751701</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H27" t="n">
-        <v>84.320299612958</v>
+        <v>84.32029961295804</v>
       </c>
       <c r="I27" t="n">
-        <v>37.86294566882081</v>
+        <v>37.86294566882093</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.786554340597835</v>
+        <v>3.786554340598052</v>
       </c>
       <c r="S27" t="n">
-        <v>127.6305556124798</v>
+        <v>127.6305556124799</v>
       </c>
       <c r="T27" t="n">
         <v>173.9226398638123</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>232.2142445012334</v>
@@ -2775,10 +2775,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>160.583099192385</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>76.19311257242664</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>328.0879733775105</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
@@ -2809,10 +2809,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H29" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>113.8693593270194</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>152.7430060483299</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2888,10 +2888,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H30" t="n">
-        <v>84.320299612958</v>
+        <v>84.32029961295804</v>
       </c>
       <c r="I30" t="n">
-        <v>37.86294566882081</v>
+        <v>37.86294566882093</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.786554340597835</v>
+        <v>3.786554340598048</v>
       </c>
       <c r="S30" t="n">
-        <v>127.6305556124798</v>
+        <v>127.6305556124799</v>
       </c>
       <c r="T30" t="n">
         <v>173.9226398638123</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>33.18539906848567</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5697534131281</v>
@@ -3012,7 +3012,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>160.583099192385</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H32" t="n">
-        <v>196.7837899536299</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>152.4706207287512</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3125,10 +3125,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H33" t="n">
-        <v>84.320299612958</v>
+        <v>84.32029961295802</v>
       </c>
       <c r="I33" t="n">
-        <v>37.86294566882081</v>
+        <v>37.86294566882091</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.786554340597835</v>
+        <v>3.786554340598034</v>
       </c>
       <c r="S33" t="n">
-        <v>127.6305556124798</v>
+        <v>127.6305556124799</v>
       </c>
       <c r="T33" t="n">
         <v>173.9226398638123</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>1.118935770948943</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.46851063150919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H35" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>181.0739242066299</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.76302693195528</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H36" t="n">
-        <v>84.320299612958</v>
+        <v>84.32029961295804</v>
       </c>
       <c r="I36" t="n">
-        <v>37.86294566882081</v>
+        <v>37.86294566882093</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.786554340597835</v>
+        <v>3.786554340598055</v>
       </c>
       <c r="S36" t="n">
-        <v>127.6305556124798</v>
+        <v>127.6305556124799</v>
       </c>
       <c r="T36" t="n">
         <v>173.9226398638123</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>76.19311257242664</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.2142445012335</v>
       </c>
       <c r="U37" t="n">
         <v>282.5697534131281</v>
@@ -3489,10 +3489,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>76.66783807881646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -3520,7 +3520,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T38" t="n">
-        <v>34.94319435019671</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>149.9114521408657</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H39" t="n">
-        <v>84.320299612958</v>
+        <v>84.32029961295804</v>
       </c>
       <c r="I39" t="n">
-        <v>37.8629456688208</v>
+        <v>37.86294566882093</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.786554340597831</v>
+        <v>3.786554340598048</v>
       </c>
       <c r="S39" t="n">
-        <v>127.6305556124798</v>
+        <v>127.6305556124799</v>
       </c>
       <c r="T39" t="n">
         <v>173.9226398638123</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>87.52641650213711</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>89.56269914528423</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>181.0739242066299</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>116.1056529770491</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H42" t="n">
-        <v>84.320299612958</v>
+        <v>84.32029961295804</v>
       </c>
       <c r="I42" t="n">
-        <v>37.86294566882079</v>
+        <v>37.86294566882093</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.786554340597817</v>
+        <v>3.786554340598066</v>
       </c>
       <c r="S42" t="n">
-        <v>127.6305556124798</v>
+        <v>127.6305556124799</v>
       </c>
       <c r="T42" t="n">
         <v>173.9226398638123</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>232.2142445012334</v>
+        <v>232.2142445012335</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>221.8398319634215</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>76.19311257242964</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>293.0653231783738</v>
+        <v>370.8618282291296</v>
       </c>
       <c r="H44" t="n">
-        <v>314.7099853831354</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4073,10 +4073,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H45" t="n">
-        <v>84.32029961295802</v>
+        <v>84.32029961295804</v>
       </c>
       <c r="I45" t="n">
-        <v>37.86294566882091</v>
+        <v>37.86294566882093</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340598034</v>
+        <v>3.786554340598073</v>
       </c>
       <c r="S45" t="n">
         <v>127.6305556124799</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>142.1044348809274</v>
       </c>
       <c r="U46" t="n">
-        <v>138.356650920419</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -4200,10 +4200,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2283.195354870029</v>
+        <v>1715.01185657461</v>
       </c>
       <c r="C2" t="n">
-        <v>1890.019853372959</v>
+        <v>1321.83635507754</v>
       </c>
       <c r="D2" t="n">
-        <v>1504.578724589627</v>
+        <v>1321.83635507754</v>
       </c>
       <c r="E2" t="n">
-        <v>1101.995199706172</v>
+        <v>919.2528301940845</v>
       </c>
       <c r="F2" t="n">
-        <v>685.1007612361494</v>
+        <v>502.3583917240622</v>
       </c>
       <c r="G2" t="n">
-        <v>271.9380057241526</v>
+        <v>89.19563621206538</v>
       </c>
       <c r="H2" t="n">
-        <v>62.11912770411551</v>
+        <v>89.19563621206538</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K2" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L2" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M2" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N2" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O2" t="n">
         <v>2572.923332933306</v>
@@ -4354,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T2" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U2" t="n">
-        <v>2683.690100581426</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V2" t="n">
-        <v>2683.690100581426</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W2" t="n">
-        <v>2683.690100581426</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="X2" t="n">
-        <v>2683.690100581426</v>
+        <v>2511.997311365405</v>
       </c>
       <c r="Y2" t="n">
-        <v>2683.690100581426</v>
+        <v>2115.506602286006</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>207.7175872278004</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L3" t="n">
-        <v>691.2836731261136</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M3" t="n">
-        <v>1319.055322752795</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N3" t="n">
-        <v>1974.833293963354</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O3" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P3" t="n">
         <v>2380.454662679751</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4512,28 +4512,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S4" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>115.6912334709294</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V4" t="n">
-        <v>92.49739787801357</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W4" t="n">
-        <v>92.49739787801357</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.652680240431</v>
+        <v>1715.01185657461</v>
       </c>
       <c r="C5" t="n">
-        <v>129.4771787433615</v>
+        <v>1321.83635507754</v>
       </c>
       <c r="D5" t="n">
-        <v>62.11912770411551</v>
+        <v>936.3952262942078</v>
       </c>
       <c r="E5" t="n">
-        <v>62.11912770411551</v>
+        <v>533.8117014107522</v>
       </c>
       <c r="F5" t="n">
-        <v>62.11912770411551</v>
+        <v>116.91726294073</v>
       </c>
       <c r="G5" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H5" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I5" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J5" t="n">
         <v>206.7689006129436</v>
@@ -4597,22 +4597,22 @@
         <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>2677.949313991765</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U5" t="n">
-        <v>2422.196584426364</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V5" t="n">
-        <v>2080.089775129883</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W5" t="n">
-        <v>1709.09074009817</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="X5" t="n">
-        <v>1319.638135031227</v>
+        <v>2511.997311365405</v>
       </c>
       <c r="Y5" t="n">
-        <v>923.1474259518279</v>
+        <v>2115.506602286006</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L6" t="n">
-        <v>545.6852136024288</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M6" t="n">
-        <v>1173.45686322911</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N6" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O6" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P6" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D7" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E7" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F7" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4752,25 +4752,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T7" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V7" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y7" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1709.09074009817</v>
+        <v>1429.351531027837</v>
       </c>
       <c r="C8" t="n">
-        <v>1709.09074009817</v>
+        <v>1036.176029530768</v>
       </c>
       <c r="D8" t="n">
-        <v>1709.09074009817</v>
+        <v>650.7349007474354</v>
       </c>
       <c r="E8" t="n">
-        <v>1354.596489027179</v>
+        <v>650.7349007474354</v>
       </c>
       <c r="F8" t="n">
-        <v>937.702050557157</v>
+        <v>650.7349007474354</v>
       </c>
       <c r="G8" t="n">
-        <v>524.5392950451601</v>
+        <v>237.5721452354385</v>
       </c>
       <c r="H8" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I8" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J8" t="n">
         <v>206.7689006129436</v>
@@ -4828,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S8" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T8" t="n">
-        <v>2677.949313991765</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U8" t="n">
-        <v>2422.196584426364</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V8" t="n">
-        <v>2080.089775129883</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="W8" t="n">
-        <v>1709.09074009817</v>
+        <v>2226.336985818633</v>
       </c>
       <c r="X8" t="n">
-        <v>1709.09074009817</v>
+        <v>2226.336985818633</v>
       </c>
       <c r="Y8" t="n">
-        <v>1709.09074009817</v>
+        <v>1829.846276739234</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N9" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4992,22 +4992,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2535.796644191037</v>
+        <v>1753.004770289088</v>
       </c>
       <c r="C11" t="n">
-        <v>2142.621142693967</v>
+        <v>1359.829268792018</v>
       </c>
       <c r="D11" t="n">
-        <v>1757.180013910635</v>
+        <v>974.3881400086859</v>
       </c>
       <c r="E11" t="n">
-        <v>1354.596489027179</v>
+        <v>571.8046151252304</v>
       </c>
       <c r="F11" t="n">
-        <v>937.702050557157</v>
+        <v>571.8046151252304</v>
       </c>
       <c r="G11" t="n">
-        <v>524.5392950451601</v>
+        <v>158.6418596132335</v>
       </c>
       <c r="H11" t="n">
-        <v>200.4562446116507</v>
+        <v>158.6418596132335</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5059,7 +5059,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
@@ -5068,25 +5068,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V11" t="n">
-        <v>2763.849575909294</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W11" t="n">
-        <v>2763.849575909294</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.796644191037</v>
+        <v>2549.990225079884</v>
       </c>
       <c r="Y11" t="n">
-        <v>2535.796644191037</v>
+        <v>2153.499516000485</v>
       </c>
     </row>
     <row r="12">
@@ -5132,13 +5132,13 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
         <v>62.11912770411553</v>
@@ -5223,28 +5223,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>963.5661502456679</v>
+        <v>847.1479267838796</v>
       </c>
       <c r="S13" t="n">
-        <v>963.5661502456679</v>
+        <v>847.1479267838796</v>
       </c>
       <c r="T13" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="U13" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V13" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2073.376476849992</v>
+        <v>1721.50939695514</v>
       </c>
       <c r="C14" t="n">
-        <v>1680.200975352922</v>
+        <v>1328.333895458071</v>
       </c>
       <c r="D14" t="n">
-        <v>1294.75984656959</v>
+        <v>1328.333895458071</v>
       </c>
       <c r="E14" t="n">
-        <v>892.1763216861347</v>
+        <v>925.7503705746151</v>
       </c>
       <c r="F14" t="n">
-        <v>475.2818832161124</v>
+        <v>925.7503705746151</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>512.5876150626182</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>188.5045646291088</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5308,22 +5308,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V14" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W14" t="n">
-        <v>3105.956385205776</v>
+        <v>2511.45674773348</v>
       </c>
       <c r="X14" t="n">
-        <v>2870.361931640788</v>
+        <v>2122.004142666537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2473.871222561389</v>
+        <v>2122.004142666537</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
         <v>62.11912770411553</v>
@@ -5460,28 +5460,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R16" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S16" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>401.1300252290284</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U16" t="n">
-        <v>115.6912334709294</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V16" t="n">
-        <v>92.49739787801357</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2397.459527283501</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C17" t="n">
-        <v>2004.284025786432</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D17" t="n">
-        <v>1618.8428970031</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F17" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
         <v>62.11912770411553</v>
@@ -5515,10 +5515,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5527,7 +5527,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5539,28 +5539,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X17" t="n">
-        <v>3105.956385205776</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y17" t="n">
-        <v>2797.954272994898</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="18">
@@ -5600,19 +5600,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C19" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D19" t="n">
         <v>62.11912770411553</v>
@@ -5697,28 +5697,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U19" t="n">
-        <v>401.1300252290284</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V19" t="n">
-        <v>135.1506800498527</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W19" t="n">
-        <v>135.1506800498527</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X19" t="n">
-        <v>135.1506800498527</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2270.978016700502</v>
+        <v>1881.52541163356</v>
       </c>
       <c r="C20" t="n">
-        <v>1877.802515203433</v>
+        <v>1488.34991013649</v>
       </c>
       <c r="D20" t="n">
-        <v>1492.361386420101</v>
+        <v>1102.908781353158</v>
       </c>
       <c r="E20" t="n">
-        <v>1089.777861536645</v>
+        <v>700.3252564697025</v>
       </c>
       <c r="F20" t="n">
-        <v>672.8834230666229</v>
+        <v>283.4308179996802</v>
       </c>
       <c r="G20" t="n">
-        <v>259.720667554626</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>3067.963471491299</v>
       </c>
       <c r="S20" t="n">
-        <v>3067.963471491298</v>
+        <v>3067.963471491299</v>
       </c>
       <c r="T20" t="n">
-        <v>3067.963471491298</v>
+        <v>3067.963471491299</v>
       </c>
       <c r="U20" t="n">
-        <v>3067.963471491298</v>
+        <v>3067.963471491299</v>
       </c>
       <c r="V20" t="n">
-        <v>3067.963471491298</v>
+        <v>3067.963471491299</v>
       </c>
       <c r="W20" t="n">
-        <v>3067.963471491298</v>
+        <v>3067.963471491299</v>
       </c>
       <c r="X20" t="n">
-        <v>3067.963471491298</v>
+        <v>2678.510866424356</v>
       </c>
       <c r="Y20" t="n">
-        <v>2671.472762411899</v>
+        <v>2282.020157344957</v>
       </c>
     </row>
     <row r="21">
@@ -5825,13 +5825,13 @@
         <v>199.803798091603</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K21" t="n">
         <v>381.858273766342</v>
@@ -5840,10 +5840,10 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1974.833293963354</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
         <v>1974.833293963354</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="C22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="D22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="E22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="F22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="G22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="I22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R22" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S22" t="n">
-        <v>2779.239312020903</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>2543.520260189137</v>
+        <v>864.9686437480539</v>
       </c>
       <c r="U22" t="n">
-        <v>2258.081468431038</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="V22" t="n">
-        <v>2204.509362664224</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W22" t="n">
-        <v>2204.509362664224</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="Y22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411555</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2519.522183495031</v>
+        <v>2240.624482503714</v>
       </c>
       <c r="C23" t="n">
-        <v>2126.346681997961</v>
+        <v>1847.448981006644</v>
       </c>
       <c r="D23" t="n">
-        <v>1740.905553214629</v>
+        <v>1462.007852223312</v>
       </c>
       <c r="E23" t="n">
-        <v>1338.322028331173</v>
+        <v>1059.424327339857</v>
       </c>
       <c r="F23" t="n">
-        <v>921.4275898611513</v>
+        <v>642.5298888698343</v>
       </c>
       <c r="G23" t="n">
-        <v>508.8696605480199</v>
+        <v>229.9719595567028</v>
       </c>
       <c r="H23" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I23" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J23" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874828</v>
       </c>
       <c r="K23" t="n">
-        <v>705.3108151130496</v>
+        <v>705.3108151130482</v>
       </c>
       <c r="L23" t="n">
-        <v>1292.177839612517</v>
+        <v>1292.177839612515</v>
       </c>
       <c r="M23" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401615</v>
       </c>
       <c r="N23" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818617</v>
       </c>
       <c r="O23" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.769891361765</v>
       </c>
       <c r="P23" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130629</v>
       </c>
       <c r="Q23" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="R23" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="S23" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="T23" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="U23" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="V23" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="W23" t="n">
-        <v>3705.96024335277</v>
+        <v>3427.062542361453</v>
       </c>
       <c r="X23" t="n">
-        <v>3316.507638285826</v>
+        <v>3037.60993729451</v>
       </c>
       <c r="Y23" t="n">
-        <v>2920.016929206427</v>
+        <v>2641.119228215111</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2306.52085801419</v>
+        <v>860.7363532310205</v>
       </c>
       <c r="C24" t="n">
-        <v>2155.866627574283</v>
+        <v>710.0821227911127</v>
       </c>
       <c r="D24" t="n">
-        <v>2025.777660195763</v>
+        <v>579.9931554125931</v>
       </c>
       <c r="E24" t="n">
-        <v>1889.331169306651</v>
+        <v>443.5466645234808</v>
       </c>
       <c r="F24" t="n">
-        <v>1764.899363189782</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G24" t="n">
-        <v>1645.163155807578</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H24" t="n">
-        <v>1559.991135996509</v>
+        <v>114.206631213339</v>
       </c>
       <c r="I24" t="n">
-        <v>1521.745736331033</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J24" t="n">
-        <v>1521.745736331033</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K24" t="n">
-        <v>1521.745736331033</v>
+        <v>446.9164895271317</v>
       </c>
       <c r="L24" t="n">
-        <v>2074.178205162589</v>
+        <v>999.3489583586868</v>
       </c>
       <c r="M24" t="n">
-        <v>2782.313675454929</v>
+        <v>1707.484428651026</v>
       </c>
       <c r="N24" t="n">
-        <v>3520.582458534155</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="O24" t="n">
-        <v>3798.061577393173</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P24" t="n">
-        <v>3798.061577393173</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q24" t="n">
-        <v>3798.061577393173</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="R24" t="n">
-        <v>3794.236775028932</v>
+        <v>2348.452270245762</v>
       </c>
       <c r="S24" t="n">
-        <v>3665.317021885013</v>
+        <v>2219.532517101843</v>
       </c>
       <c r="T24" t="n">
-        <v>3489.637587679142</v>
+        <v>2043.853082895972</v>
       </c>
       <c r="U24" t="n">
-        <v>3279.59573452528</v>
+        <v>1833.811229742109</v>
       </c>
       <c r="V24" t="n">
-        <v>3057.055732896346</v>
+        <v>1611.271228113176</v>
       </c>
       <c r="W24" t="n">
-        <v>2826.938487029633</v>
+        <v>1381.153982246463</v>
       </c>
       <c r="X24" t="n">
-        <v>2637.631409379645</v>
+        <v>1191.846904596475</v>
       </c>
       <c r="Y24" t="n">
-        <v>2458.317192455152</v>
+        <v>1012.532687671982</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3057.538791923977</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="C25" t="n">
-        <v>3057.538791923977</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="D25" t="n">
-        <v>3057.538791923977</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="E25" t="n">
-        <v>3057.538791923977</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="F25" t="n">
-        <v>3057.538791923977</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="G25" t="n">
-        <v>2941.004294140362</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H25" t="n">
-        <v>2787.937884177175</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I25" t="n">
-        <v>2663.002316357357</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K25" t="n">
-        <v>2764.533651243074</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L25" t="n">
-        <v>2968.194150890259</v>
+        <v>392.3501285422311</v>
       </c>
       <c r="M25" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955781</v>
       </c>
       <c r="N25" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289384</v>
       </c>
       <c r="O25" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.493221405438</v>
       </c>
       <c r="P25" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371396</v>
       </c>
       <c r="Q25" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="R25" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="S25" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="T25" t="n">
-        <v>3798.061577393173</v>
+        <v>987.6577121146037</v>
       </c>
       <c r="U25" t="n">
-        <v>3798.061577393173</v>
+        <v>702.2337187680096</v>
       </c>
       <c r="V25" t="n">
-        <v>3798.061577393173</v>
+        <v>436.2543735888338</v>
       </c>
       <c r="W25" t="n">
-        <v>3514.73117532435</v>
+        <v>152.9239715200114</v>
       </c>
       <c r="X25" t="n">
-        <v>3280.650853107333</v>
+        <v>152.9239715200114</v>
       </c>
       <c r="Y25" t="n">
-        <v>3057.538791923977</v>
+        <v>75.96123154786331</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2519.522183495031</v>
+        <v>1700.044220141553</v>
       </c>
       <c r="C26" t="n">
-        <v>2126.346681997961</v>
+        <v>1306.868718644484</v>
       </c>
       <c r="D26" t="n">
-        <v>1740.905553214629</v>
+        <v>921.4275898611515</v>
       </c>
       <c r="E26" t="n">
-        <v>1338.322028331173</v>
+        <v>921.4275898611515</v>
       </c>
       <c r="F26" t="n">
-        <v>921.4275898611513</v>
+        <v>921.4275898611515</v>
       </c>
       <c r="G26" t="n">
-        <v>508.8696605480199</v>
+        <v>508.86966054802</v>
       </c>
       <c r="H26" t="n">
-        <v>190.9807864236407</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="I26" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874829</v>
       </c>
       <c r="K26" t="n">
-        <v>705.3108151130496</v>
+        <v>705.3108151130482</v>
       </c>
       <c r="L26" t="n">
-        <v>1292.177839612517</v>
+        <v>1292.177839612515</v>
       </c>
       <c r="M26" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401615</v>
       </c>
       <c r="N26" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818617</v>
       </c>
       <c r="O26" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.769891361765</v>
       </c>
       <c r="P26" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130629</v>
       </c>
       <c r="Q26" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="R26" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="S26" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="T26" t="n">
-        <v>3645.330499340868</v>
+        <v>3599.588124327487</v>
       </c>
       <c r="U26" t="n">
-        <v>3645.330499340868</v>
+        <v>3599.588124327487</v>
       </c>
       <c r="V26" t="n">
-        <v>3645.330499340868</v>
+        <v>3257.481315031005</v>
       </c>
       <c r="W26" t="n">
-        <v>3274.331464309156</v>
+        <v>2886.482279999293</v>
       </c>
       <c r="X26" t="n">
-        <v>3274.331464309156</v>
+        <v>2497.029674932349</v>
       </c>
       <c r="Y26" t="n">
-        <v>2920.016929206427</v>
+        <v>2100.53896585295</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F27" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G27" t="n">
         <v>199.3786510244077</v>
@@ -6302,25 +6302,25 @@
         <v>114.206631213339</v>
       </c>
       <c r="I27" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J27" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K27" t="n">
-        <v>75.96123154786345</v>
+        <v>446.9164895271317</v>
       </c>
       <c r="L27" t="n">
-        <v>75.96123154786345</v>
+        <v>999.3489583586868</v>
       </c>
       <c r="M27" t="n">
-        <v>784.0967018402031</v>
+        <v>1707.484428651026</v>
       </c>
       <c r="N27" t="n">
-        <v>1522.365484919429</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="O27" t="n">
-        <v>2114.348744482021</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P27" t="n">
         <v>2352.277072610002</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="C28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="D28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="E28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="F28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="G28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K28" t="n">
-        <v>188.6896288950475</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L28" t="n">
-        <v>392.3501285422321</v>
+        <v>392.3501285422311</v>
       </c>
       <c r="M28" t="n">
-        <v>620.3235645955796</v>
+        <v>620.3235645955781</v>
       </c>
       <c r="N28" t="n">
-        <v>844.2039549289403</v>
+        <v>844.2039549289384</v>
       </c>
       <c r="O28" t="n">
-        <v>1044.49322140544</v>
+        <v>1044.493221405438</v>
       </c>
       <c r="P28" t="n">
-        <v>1196.529419371398</v>
+        <v>1196.529419371396</v>
       </c>
       <c r="Q28" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="R28" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="S28" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="T28" t="n">
-        <v>789.5697207730121</v>
+        <v>987.6577121146037</v>
       </c>
       <c r="U28" t="n">
-        <v>504.1457274264181</v>
+        <v>702.2337187680096</v>
       </c>
       <c r="V28" t="n">
-        <v>238.1663822472423</v>
+        <v>436.2543735888338</v>
       </c>
       <c r="W28" t="n">
-        <v>75.96123154786345</v>
+        <v>152.9239715200114</v>
       </c>
       <c r="X28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="Y28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1669.72402164179</v>
+        <v>2201.633309370652</v>
       </c>
       <c r="C29" t="n">
-        <v>1669.72402164179</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="D29" t="n">
-        <v>1669.72402164179</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E29" t="n">
-        <v>1338.322028331173</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F29" t="n">
-        <v>921.4275898611513</v>
+        <v>603.5387157367722</v>
       </c>
       <c r="G29" t="n">
-        <v>508.8696605480199</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="H29" t="n">
-        <v>190.9807864236407</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="I29" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874832</v>
       </c>
       <c r="K29" t="n">
-        <v>705.3108151130496</v>
+        <v>705.3108151130486</v>
       </c>
       <c r="L29" t="n">
-        <v>1292.177839612517</v>
+        <v>1292.177839612515</v>
       </c>
       <c r="M29" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401616</v>
       </c>
       <c r="N29" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818618</v>
       </c>
       <c r="O29" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.769891361766</v>
       </c>
       <c r="P29" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130629</v>
       </c>
       <c r="Q29" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="R29" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="S29" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="T29" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="U29" t="n">
-        <v>3168.773180116326</v>
+        <v>3542.357233923673</v>
       </c>
       <c r="V29" t="n">
-        <v>2826.666370819845</v>
+        <v>3542.357233923673</v>
       </c>
       <c r="W29" t="n">
-        <v>2455.667335788132</v>
+        <v>3388.071369228391</v>
       </c>
       <c r="X29" t="n">
-        <v>2066.214730721189</v>
+        <v>2998.618764161447</v>
       </c>
       <c r="Y29" t="n">
-        <v>1669.72402164179</v>
+        <v>2602.128055082048</v>
       </c>
     </row>
     <row r="30">
@@ -6530,7 +6530,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F30" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G30" t="n">
         <v>199.3786510244077</v>
@@ -6539,25 +6539,25 @@
         <v>114.206631213339</v>
       </c>
       <c r="I30" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J30" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K30" t="n">
-        <v>75.96123154786345</v>
+        <v>446.9164895271317</v>
       </c>
       <c r="L30" t="n">
-        <v>313.8895596758443</v>
+        <v>999.3489583586868</v>
       </c>
       <c r="M30" t="n">
-        <v>1022.025029968184</v>
+        <v>1707.484428651026</v>
       </c>
       <c r="N30" t="n">
-        <v>1760.29381304741</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="O30" t="n">
-        <v>2352.277072610002</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P30" t="n">
         <v>2352.277072610002</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.96123154786345</v>
+        <v>387.4838144505504</v>
       </c>
       <c r="C31" t="n">
-        <v>75.96123154786345</v>
+        <v>387.4838144505504</v>
       </c>
       <c r="D31" t="n">
-        <v>75.96123154786345</v>
+        <v>387.4838144505504</v>
       </c>
       <c r="E31" t="n">
-        <v>75.96123154786345</v>
+        <v>387.4838144505504</v>
       </c>
       <c r="F31" t="n">
-        <v>75.96123154786345</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="G31" t="n">
-        <v>75.96123154786345</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="H31" t="n">
-        <v>75.96123154786345</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="I31" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J31" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K31" t="n">
-        <v>188.6896288950475</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L31" t="n">
-        <v>392.3501285422321</v>
+        <v>392.3501285422311</v>
       </c>
       <c r="M31" t="n">
-        <v>620.3235645955796</v>
+        <v>620.3235645955781</v>
       </c>
       <c r="N31" t="n">
-        <v>844.2039549289403</v>
+        <v>844.2039549289384</v>
       </c>
       <c r="O31" t="n">
-        <v>1044.49322140544</v>
+        <v>1044.493221405438</v>
       </c>
       <c r="P31" t="n">
-        <v>1196.529419371398</v>
+        <v>1196.529419371396</v>
       </c>
       <c r="Q31" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="R31" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="S31" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="T31" t="n">
-        <v>789.5697207730121</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="U31" t="n">
-        <v>504.1457274264181</v>
+        <v>936.7935616985485</v>
       </c>
       <c r="V31" t="n">
-        <v>238.1663822472423</v>
+        <v>670.8142165193727</v>
       </c>
       <c r="W31" t="n">
-        <v>75.96123154786345</v>
+        <v>387.4838144505504</v>
       </c>
       <c r="X31" t="n">
-        <v>75.96123154786345</v>
+        <v>387.4838144505504</v>
       </c>
       <c r="Y31" t="n">
-        <v>75.96123154786345</v>
+        <v>387.4838144505504</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2285.385259498541</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C32" t="n">
-        <v>1892.209758001472</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D32" t="n">
-        <v>1506.768629218139</v>
+        <v>1307.997124214472</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.185104334684</v>
+        <v>905.4135993310169</v>
       </c>
       <c r="F32" t="n">
-        <v>687.2906658646615</v>
+        <v>488.5191608609948</v>
       </c>
       <c r="G32" t="n">
-        <v>274.73273655153</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H32" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I32" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9233280874835</v>
+        <v>270.923328087483</v>
       </c>
       <c r="K32" t="n">
-        <v>705.3108151130496</v>
+        <v>705.3108151130483</v>
       </c>
       <c r="L32" t="n">
-        <v>1292.177839612517</v>
+        <v>1292.177839612515</v>
       </c>
       <c r="M32" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401616</v>
       </c>
       <c r="N32" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818617</v>
       </c>
       <c r="O32" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.769891361766</v>
       </c>
       <c r="P32" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130629</v>
       </c>
       <c r="Q32" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="R32" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="S32" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="T32" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="U32" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="V32" t="n">
-        <v>3082.370714289337</v>
+        <v>3644.050849384326</v>
       </c>
       <c r="W32" t="n">
-        <v>3082.370714289337</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X32" t="n">
-        <v>3082.370714289337</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y32" t="n">
-        <v>2685.880005209938</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2306.52085801419</v>
+        <v>860.7363532310205</v>
       </c>
       <c r="C33" t="n">
-        <v>2155.866627574283</v>
+        <v>710.0821227911127</v>
       </c>
       <c r="D33" t="n">
-        <v>2025.777660195763</v>
+        <v>579.9931554125931</v>
       </c>
       <c r="E33" t="n">
-        <v>1889.331169306651</v>
+        <v>443.5466645234808</v>
       </c>
       <c r="F33" t="n">
-        <v>1764.899363189782</v>
+        <v>319.1148584066126</v>
       </c>
       <c r="G33" t="n">
-        <v>1645.163155807578</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H33" t="n">
-        <v>1559.991135996509</v>
+        <v>114.206631213339</v>
       </c>
       <c r="I33" t="n">
-        <v>1521.745736331033</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J33" t="n">
-        <v>1521.745736331033</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K33" t="n">
-        <v>1521.745736331033</v>
+        <v>446.9164895271317</v>
       </c>
       <c r="L33" t="n">
-        <v>2074.178205162589</v>
+        <v>999.3489583586868</v>
       </c>
       <c r="M33" t="n">
-        <v>2782.313675454929</v>
+        <v>1294.106752377726</v>
       </c>
       <c r="N33" t="n">
-        <v>3520.582458534155</v>
+        <v>1294.106752377726</v>
       </c>
       <c r="O33" t="n">
-        <v>3798.061577393173</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P33" t="n">
-        <v>3798.061577393173</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q33" t="n">
-        <v>3798.061577393173</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="R33" t="n">
-        <v>3794.236775028932</v>
+        <v>2348.452270245762</v>
       </c>
       <c r="S33" t="n">
-        <v>3665.317021885013</v>
+        <v>2219.532517101843</v>
       </c>
       <c r="T33" t="n">
-        <v>3489.637587679142</v>
+        <v>2043.853082895972</v>
       </c>
       <c r="U33" t="n">
-        <v>3279.59573452528</v>
+        <v>1833.811229742109</v>
       </c>
       <c r="V33" t="n">
-        <v>3057.055732896346</v>
+        <v>1611.271228113176</v>
       </c>
       <c r="W33" t="n">
-        <v>2826.938487029633</v>
+        <v>1381.153982246463</v>
       </c>
       <c r="X33" t="n">
-        <v>2637.631409379645</v>
+        <v>1191.846904596475</v>
       </c>
       <c r="Y33" t="n">
-        <v>2458.317192455152</v>
+        <v>1012.532687671982</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>387.1531567861462</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="C34" t="n">
-        <v>387.1531567861462</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="D34" t="n">
-        <v>231.520043688661</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="E34" t="n">
-        <v>75.96123154786345</v>
+        <v>386.3535762980771</v>
       </c>
       <c r="F34" t="n">
-        <v>75.96123154786345</v>
+        <v>229.0276415110501</v>
       </c>
       <c r="G34" t="n">
-        <v>75.96123154786345</v>
+        <v>229.0276415110501</v>
       </c>
       <c r="H34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K34" t="n">
-        <v>188.6896288950475</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L34" t="n">
-        <v>392.3501285422321</v>
+        <v>392.3501285422312</v>
       </c>
       <c r="M34" t="n">
-        <v>620.3235645955796</v>
+        <v>620.3235645955783</v>
       </c>
       <c r="N34" t="n">
-        <v>844.2039549289403</v>
+        <v>844.2039549289387</v>
       </c>
       <c r="O34" t="n">
-        <v>1044.49322140544</v>
+        <v>1044.493221405438</v>
       </c>
       <c r="P34" t="n">
-        <v>1196.529419371398</v>
+        <v>1196.529419371396</v>
       </c>
       <c r="Q34" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="R34" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="S34" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="T34" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045143</v>
       </c>
       <c r="U34" t="n">
-        <v>936.7935616985517</v>
+        <v>936.793561698549</v>
       </c>
       <c r="V34" t="n">
-        <v>670.8142165193759</v>
+        <v>670.8142165193732</v>
       </c>
       <c r="W34" t="n">
-        <v>670.8142165193759</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="X34" t="n">
-        <v>670.8142165193759</v>
+        <v>387.4838144505508</v>
       </c>
       <c r="Y34" t="n">
-        <v>572.3611754774474</v>
+        <v>387.4838144505508</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1575.0502608361</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C35" t="n">
-        <v>1181.87475933903</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D35" t="n">
-        <v>796.4336305556981</v>
+        <v>1307.997124214472</v>
       </c>
       <c r="E35" t="n">
-        <v>393.8501056722426</v>
+        <v>905.4135993310169</v>
       </c>
       <c r="F35" t="n">
-        <v>393.8501056722426</v>
+        <v>488.5191608609948</v>
       </c>
       <c r="G35" t="n">
-        <v>393.8501056722426</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H35" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I35" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874826</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130496</v>
+        <v>705.310815113048</v>
       </c>
       <c r="L35" t="n">
-        <v>1292.177839612517</v>
+        <v>1292.177839612515</v>
       </c>
       <c r="M35" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401615</v>
       </c>
       <c r="N35" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818617</v>
       </c>
       <c r="O35" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.769891361765</v>
       </c>
       <c r="P35" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130628</v>
       </c>
       <c r="Q35" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="R35" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="S35" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="T35" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="U35" t="n">
-        <v>3168.773180116326</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="V35" t="n">
-        <v>2826.666370819845</v>
+        <v>3455.954768096684</v>
       </c>
       <c r="W35" t="n">
-        <v>2455.667335788132</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X35" t="n">
-        <v>2066.214730721189</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y35" t="n">
-        <v>1975.545006547497</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="36">
@@ -7004,7 +7004,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F36" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G36" t="n">
         <v>199.3786510244077</v>
@@ -7013,28 +7013,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I36" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J36" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K36" t="n">
-        <v>75.96123154786345</v>
+        <v>446.9164895271317</v>
       </c>
       <c r="L36" t="n">
-        <v>628.3937003794192</v>
+        <v>999.3489583586868</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.529170671759</v>
+        <v>1707.484428651026</v>
       </c>
       <c r="N36" t="n">
-        <v>2074.797953750985</v>
+        <v>1707.484428651026</v>
       </c>
       <c r="O36" t="n">
-        <v>2352.277072610002</v>
+        <v>1707.484428651026</v>
       </c>
       <c r="P36" t="n">
-        <v>2352.277072610002</v>
+        <v>2173.67148932071</v>
       </c>
       <c r="Q36" t="n">
         <v>2352.277072610002</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="C37" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="D37" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="E37" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="F37" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="G37" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H37" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I37" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J37" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K37" t="n">
-        <v>188.6896288950475</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L37" t="n">
-        <v>392.3501285422321</v>
+        <v>392.3501285422311</v>
       </c>
       <c r="M37" t="n">
-        <v>620.3235645955796</v>
+        <v>620.3235645955781</v>
       </c>
       <c r="N37" t="n">
-        <v>844.2039549289403</v>
+        <v>844.2039549289384</v>
       </c>
       <c r="O37" t="n">
-        <v>1044.49322140544</v>
+        <v>1044.493221405438</v>
       </c>
       <c r="P37" t="n">
-        <v>1196.529419371398</v>
+        <v>1196.529419371396</v>
       </c>
       <c r="Q37" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="R37" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="S37" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="T37" t="n">
-        <v>1222.217555045146</v>
+        <v>987.6577121146037</v>
       </c>
       <c r="U37" t="n">
-        <v>936.7935616985517</v>
+        <v>702.2337187680096</v>
       </c>
       <c r="V37" t="n">
-        <v>670.8142165193759</v>
+        <v>436.2543735888338</v>
       </c>
       <c r="W37" t="n">
-        <v>387.4838144505536</v>
+        <v>152.9239715200114</v>
       </c>
       <c r="X37" t="n">
-        <v>153.4034922335366</v>
+        <v>152.9239715200114</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.96123154786345</v>
+        <v>152.9239715200114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2404.502628619254</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C38" t="n">
-        <v>2011.327127122184</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D38" t="n">
-        <v>1625.885998338852</v>
+        <v>1307.997124214472</v>
       </c>
       <c r="E38" t="n">
-        <v>1223.302473455396</v>
+        <v>905.4135993310169</v>
       </c>
       <c r="F38" t="n">
-        <v>806.4080349853741</v>
+        <v>488.5191608609948</v>
       </c>
       <c r="G38" t="n">
-        <v>393.8501056722426</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H38" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I38" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J38" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874832</v>
       </c>
       <c r="K38" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130486</v>
       </c>
       <c r="L38" t="n">
-        <v>1292.177839612517</v>
+        <v>1292.177839612515</v>
       </c>
       <c r="M38" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401616</v>
       </c>
       <c r="N38" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818618</v>
       </c>
       <c r="O38" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.769891361766</v>
       </c>
       <c r="P38" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130629</v>
       </c>
       <c r="Q38" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="R38" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="S38" t="n">
-        <v>3798.061577393173</v>
+        <v>3645.330499340861</v>
       </c>
       <c r="T38" t="n">
-        <v>3762.765421483883</v>
+        <v>3424.477523585811</v>
       </c>
       <c r="U38" t="n">
-        <v>3507.061078014391</v>
+        <v>3424.477523585811</v>
       </c>
       <c r="V38" t="n">
-        <v>3164.95426871791</v>
+        <v>3424.477523585811</v>
       </c>
       <c r="W38" t="n">
-        <v>2793.955233686197</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X38" t="n">
-        <v>2404.502628619254</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y38" t="n">
-        <v>2404.502628619254</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="39">
@@ -7241,7 +7241,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F39" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G39" t="n">
         <v>199.3786510244077</v>
@@ -7250,28 +7250,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I39" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J39" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481677</v>
       </c>
       <c r="K39" t="n">
-        <v>75.96123154786345</v>
+        <v>589.9971470274361</v>
       </c>
       <c r="L39" t="n">
-        <v>628.3937003794193</v>
+        <v>1142.429615858991</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.529170671759</v>
+        <v>1142.429615858991</v>
       </c>
       <c r="N39" t="n">
-        <v>2074.797953750985</v>
+        <v>1142.429615858991</v>
       </c>
       <c r="O39" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="P39" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q39" t="n">
         <v>2352.277072610002</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3378.773236484854</v>
+        <v>164.3717532671937</v>
       </c>
       <c r="C40" t="n">
-        <v>3378.773236484854</v>
+        <v>164.3717532671937</v>
       </c>
       <c r="D40" t="n">
-        <v>3223.140123387369</v>
+        <v>164.3717532671937</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.581311246571</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="F40" t="n">
-        <v>2910.255376459544</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="G40" t="n">
-        <v>2742.272626769915</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H40" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I40" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J40" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K40" t="n">
-        <v>2764.533651243074</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L40" t="n">
-        <v>2968.194150890259</v>
+        <v>392.3501285422311</v>
       </c>
       <c r="M40" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955781</v>
       </c>
       <c r="N40" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289384</v>
       </c>
       <c r="O40" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.493221405438</v>
       </c>
       <c r="P40" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371396</v>
       </c>
       <c r="Q40" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="R40" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="S40" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="T40" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="U40" t="n">
-        <v>3798.061577393173</v>
+        <v>936.7935616985485</v>
       </c>
       <c r="V40" t="n">
-        <v>3798.061577393173</v>
+        <v>670.8142165193727</v>
       </c>
       <c r="W40" t="n">
-        <v>3798.061577393173</v>
+        <v>387.4838144505504</v>
       </c>
       <c r="X40" t="n">
-        <v>3563.981255176156</v>
+        <v>387.4838144505504</v>
       </c>
       <c r="Y40" t="n">
-        <v>3563.981255176156</v>
+        <v>164.3717532671937</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1701.172625711542</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C41" t="n">
-        <v>1307.997124214473</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D41" t="n">
-        <v>1307.997124214473</v>
+        <v>1307.997124214472</v>
       </c>
       <c r="E41" t="n">
-        <v>905.4135993310172</v>
+        <v>905.4135993310169</v>
       </c>
       <c r="F41" t="n">
-        <v>488.5191608609949</v>
+        <v>488.5191608609948</v>
       </c>
       <c r="G41" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H41" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I41" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J41" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874831</v>
       </c>
       <c r="K41" t="n">
-        <v>705.3108151130498</v>
+        <v>705.3108151130485</v>
       </c>
       <c r="L41" t="n">
-        <v>1292.177839612517</v>
+        <v>1292.177839612515</v>
       </c>
       <c r="M41" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401616</v>
       </c>
       <c r="N41" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818617</v>
       </c>
       <c r="O41" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.769891361765</v>
       </c>
       <c r="P41" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130629</v>
       </c>
       <c r="Q41" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="R41" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="S41" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="T41" t="n">
-        <v>3577.208601638123</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="U41" t="n">
-        <v>3321.504258168631</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="V41" t="n">
-        <v>2979.39744887215</v>
+        <v>3455.954768096684</v>
       </c>
       <c r="W41" t="n">
-        <v>2608.398413840437</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X41" t="n">
-        <v>2218.945808773494</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y41" t="n">
-        <v>2101.667371422939</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="42">
@@ -7478,7 +7478,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F42" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G42" t="n">
         <v>199.3786510244077</v>
@@ -7487,28 +7487,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I42" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J42" t="n">
-        <v>75.96123154786346</v>
+        <v>219.0418890481676</v>
       </c>
       <c r="K42" t="n">
-        <v>75.96123154786346</v>
+        <v>589.997147027436</v>
       </c>
       <c r="L42" t="n">
-        <v>280.9863166106098</v>
+        <v>1142.429615858991</v>
       </c>
       <c r="M42" t="n">
-        <v>280.9863166106098</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="N42" t="n">
-        <v>1019.255099689836</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="O42" t="n">
-        <v>1611.238359252428</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="P42" t="n">
-        <v>2077.425419922113</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q42" t="n">
         <v>2352.277072610002</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.96123154786346</v>
+        <v>246.1663494818741</v>
       </c>
       <c r="C43" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="D43" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="E43" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="F43" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="G43" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H43" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I43" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J43" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K43" t="n">
-        <v>188.6896288950475</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L43" t="n">
-        <v>392.3501285422321</v>
+        <v>392.3501285422311</v>
       </c>
       <c r="M43" t="n">
-        <v>620.3235645955797</v>
+        <v>620.3235645955781</v>
       </c>
       <c r="N43" t="n">
-        <v>844.2039549289404</v>
+        <v>844.2039549289384</v>
       </c>
       <c r="O43" t="n">
-        <v>1044.49322140544</v>
+        <v>1044.493221405438</v>
       </c>
       <c r="P43" t="n">
-        <v>1196.529419371398</v>
+        <v>1196.529419371396</v>
       </c>
       <c r="Q43" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="R43" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="S43" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="T43" t="n">
-        <v>987.6577121146069</v>
+        <v>987.6577121146037</v>
       </c>
       <c r="U43" t="n">
-        <v>702.2337187680127</v>
+        <v>987.6577121146037</v>
       </c>
       <c r="V43" t="n">
-        <v>436.254373588837</v>
+        <v>763.5770737677133</v>
       </c>
       <c r="W43" t="n">
-        <v>152.9239715200146</v>
+        <v>480.246671698891</v>
       </c>
       <c r="X43" t="n">
-        <v>75.96123154786346</v>
+        <v>246.1663494818741</v>
       </c>
       <c r="Y43" t="n">
-        <v>75.96123154786346</v>
+        <v>246.1663494818741</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2287.970278274177</v>
+        <v>2048.663732483894</v>
       </c>
       <c r="C44" t="n">
-        <v>1894.794776777107</v>
+        <v>1655.488230986824</v>
       </c>
       <c r="D44" t="n">
-        <v>1509.353647993775</v>
+        <v>1270.047102203492</v>
       </c>
       <c r="E44" t="n">
-        <v>1106.770123110319</v>
+        <v>867.4635773200366</v>
       </c>
       <c r="F44" t="n">
-        <v>689.875684640297</v>
+        <v>450.5691388500144</v>
       </c>
       <c r="G44" t="n">
-        <v>393.8501056722426</v>
+        <v>75.96123154786329</v>
       </c>
       <c r="H44" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786329</v>
       </c>
       <c r="I44" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786329</v>
       </c>
       <c r="J44" t="n">
-        <v>270.9233280874831</v>
+        <v>270.9233280874828</v>
       </c>
       <c r="K44" t="n">
-        <v>705.3108151130484</v>
+        <v>705.3108151130481</v>
       </c>
       <c r="L44" t="n">
         <v>1292.177839612515</v>
       </c>
       <c r="M44" t="n">
-        <v>1942.267504401616</v>
+        <v>1942.267504401615</v>
       </c>
       <c r="N44" t="n">
-        <v>2575.851817818618</v>
+        <v>2575.851817818616</v>
       </c>
       <c r="O44" t="n">
-        <v>3115.769891361766</v>
+        <v>3115.769891361765</v>
       </c>
       <c r="P44" t="n">
-        <v>3549.20134913063</v>
+        <v>3549.201349130628</v>
       </c>
       <c r="Q44" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.061577393164</v>
       </c>
       <c r="R44" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.061577393164</v>
       </c>
       <c r="S44" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.061577393164</v>
       </c>
       <c r="T44" t="n">
-        <v>3798.061577393166</v>
+        <v>3577.208601638114</v>
       </c>
       <c r="U44" t="n">
-        <v>3798.061577393166</v>
+        <v>3577.208601638114</v>
       </c>
       <c r="V44" t="n">
-        <v>3455.954768096685</v>
+        <v>3235.101792341633</v>
       </c>
       <c r="W44" t="n">
-        <v>3084.955733064972</v>
+        <v>3235.101792341633</v>
       </c>
       <c r="X44" t="n">
-        <v>3084.955733064972</v>
+        <v>2845.64918727469</v>
       </c>
       <c r="Y44" t="n">
-        <v>2688.465023985573</v>
+        <v>2449.158478195291</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>114.206631213339</v>
       </c>
       <c r="I45" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786329</v>
       </c>
       <c r="J45" t="n">
-        <v>95.86737287901389</v>
+        <v>219.0418890481676</v>
       </c>
       <c r="K45" t="n">
-        <v>466.8226308582823</v>
+        <v>589.9971470274359</v>
       </c>
       <c r="L45" t="n">
-        <v>1019.255099689837</v>
+        <v>1142.429615858991</v>
       </c>
       <c r="M45" t="n">
-        <v>1019.255099689837</v>
+        <v>1142.429615858991</v>
       </c>
       <c r="N45" t="n">
-        <v>1019.255099689837</v>
+        <v>1142.429615858991</v>
       </c>
       <c r="O45" t="n">
         <v>1611.238359252429</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.96123154786333</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="C46" t="n">
-        <v>75.96123154786333</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="D46" t="n">
-        <v>75.96123154786333</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="E46" t="n">
-        <v>75.96123154786333</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="F46" t="n">
-        <v>75.96123154786333</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="G46" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786329</v>
       </c>
       <c r="H46" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786329</v>
       </c>
       <c r="I46" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786329</v>
       </c>
       <c r="J46" t="n">
-        <v>75.96123154786333</v>
+        <v>75.96123154786329</v>
       </c>
       <c r="K46" t="n">
-        <v>188.689628895047</v>
+        <v>188.6896288950469</v>
       </c>
       <c r="L46" t="n">
-        <v>392.3501285422312</v>
+        <v>392.3501285422311</v>
       </c>
       <c r="M46" t="n">
-        <v>620.3235645955783</v>
+        <v>620.323564595578</v>
       </c>
       <c r="N46" t="n">
-        <v>844.2039549289387</v>
+        <v>844.2039549289383</v>
       </c>
       <c r="O46" t="n">
         <v>1044.493221405438</v>
@@ -7827,31 +7827,31 @@
         <v>1196.529419371396</v>
       </c>
       <c r="Q46" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="R46" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="S46" t="n">
-        <v>1222.217555045143</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="T46" t="n">
-        <v>1222.217555045143</v>
+        <v>1078.677721832084</v>
       </c>
       <c r="U46" t="n">
-        <v>1082.463362196235</v>
+        <v>793.2537284854905</v>
       </c>
       <c r="V46" t="n">
-        <v>816.4840170170592</v>
+        <v>527.2743833063147</v>
       </c>
       <c r="W46" t="n">
-        <v>533.1536149482369</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="X46" t="n">
-        <v>299.07329273122</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="Y46" t="n">
-        <v>75.96123154786333</v>
+        <v>243.9439812374923</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>122.408528569654</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8072,10 +8072,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8294,13 +8294,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
         <v>726.4998994499999</v>
@@ -8309,13 +8309,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>377.2173282296772</v>
       </c>
       <c r="P6" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8543,7 +8543,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>373.1055958271594</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8780,16 +8780,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9011,10 +9011,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9023,10 +9023,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9248,7 +9248,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9260,10 +9260,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9488,13 +9488,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N21" t="n">
-        <v>571.8744206036794</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9716,10 +9716,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406338</v>
+        <v>52.17609846406371</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9728,16 +9728,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>653.353761430238</v>
       </c>
       <c r="O24" t="n">
-        <v>296.7442678660675</v>
+        <v>16.46232962463608</v>
       </c>
       <c r="P24" t="n">
-        <v>25.905898199832</v>
+        <v>25.90589819983267</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.09263685995591</v>
+        <v>50.09263685995635</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406339</v>
+        <v>52.17609846406371</v>
       </c>
       <c r="K27" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>20.49834389404698</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>182.4577405517687</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>16.46232962463608</v>
       </c>
       <c r="P27" t="n">
-        <v>266.23754277355</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995591</v>
+        <v>50.09263685995635</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406338</v>
+        <v>52.1760984640637</v>
       </c>
       <c r="K30" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>260.829988467765</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>182.4577405517686</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>16.46232962463607</v>
       </c>
       <c r="P30" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.09263685995591</v>
+        <v>50.09263685995634</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406338</v>
+        <v>52.17609846406368</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>308.9466910931314</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461574778</v>
       </c>
       <c r="O33" t="n">
-        <v>296.7442678660675</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995591</v>
+        <v>50.09263685995631</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,10 +10664,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406338</v>
+        <v>52.17609846406371</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10676,16 +10676,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461574877</v>
       </c>
       <c r="O36" t="n">
-        <v>296.7442678660666</v>
+        <v>16.4623296246361</v>
       </c>
       <c r="P36" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995591</v>
+        <v>230.5023169501504</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>52.17609846406337</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>37.8634889524823</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935477</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461574835</v>
       </c>
       <c r="O39" t="n">
-        <v>296.7442678660666</v>
+        <v>490.006514870533</v>
       </c>
       <c r="P39" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.0926368599559</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,22 +11138,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>52.17609846406335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>37.86348895248226</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>227.5943894119725</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>11.21154561935383</v>
+        <v>484.755730865252</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461574906</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>16.46232962463613</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>72.28331192987233</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11384,13 +11384,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>11.21154561935471</v>
+        <v>11.21154561935487</v>
       </c>
       <c r="N45" t="n">
-        <v>2.048060461574778</v>
+        <v>2.048060461574934</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705332</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>113.1215306893376</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>110.1480023155895</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22603,7 +22603,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -22612,10 +22612,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22728,7 +22728,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>240.3576544903974</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22789,16 +22789,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>314.9022469666454</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>354.7809740726285</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22837,16 +22837,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22947,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22992,19 +22992,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>134.7564242791756</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>47.60838107434012</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>147.1437325731645</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.39624114843301</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>221.2655964161775</v>
@@ -23317,16 +23317,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>159.7856766151986</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>7.407938246578368</v>
       </c>
       <c r="S13" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>11.83216318271647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
@@ -23557,13 +23557,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>152.3195699869349</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23676,7 +23676,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>240.3576544903974</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
@@ -23797,10 +23797,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>87.60371089983539</v>
+        <v>189.9325545642683</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>88.04528326640968</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>148.5797037492433</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>189.9325545642678</v>
       </c>
       <c r="H20" t="n">
-        <v>125.2166954771689</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24034,7 +24034,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>135.7503298808103</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>210.2831670182379</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>162.2393646543843</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>151.2037672717813</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T23" t="n">
         <v>218.6444459974996</v>
@@ -24268,7 +24268,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>276.1087239813966</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24378,16 +24378,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>50.93376938695403</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>11.08509183685221</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>110.585143828612</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S25" t="n">
-        <v>196.1071114281788</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T25" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>144.6878279990964</v>
       </c>
     </row>
     <row r="26">
@@ -24451,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T26" t="n">
-        <v>218.6444459974996</v>
+        <v>22.15572746247764</v>
       </c>
       <c r="U26" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.75441223690387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24621,10 +24621,10 @@
         <v>151.5357458635549</v>
       </c>
       <c r="I28" t="n">
-        <v>123.6862121416195</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J28" t="n">
-        <v>11.085091836852</v>
+        <v>11.08509183685221</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>110.585143828612</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>119.9139988557491</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>155.5464064224201</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>70.46971625711035</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>214.5460386330655</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24849,19 +24849,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>122.5672763706711</v>
       </c>
       <c r="G31" t="n">
         <v>166.3029221927327</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.085091836852</v>
+        <v>11.08509183685221</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.585143828612</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>119.9139988557491</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>117.9261954295055</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I32" t="n">
-        <v>113.8693593270194</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U32" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>186.2151204747656</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>152.8842882484406</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.3029221927327</v>
       </c>
       <c r="H34" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>123.6862121416195</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J34" t="n">
-        <v>11.085091836852</v>
+        <v>11.08509183685219</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.585143828612</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S34" t="n">
-        <v>196.1071114281788</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T34" t="n">
         <v>232.2142445012334</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>123.4124299400139</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I35" t="n">
-        <v>113.8693593270194</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>186.2151204747655</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>302.7627750566496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>107.1628259319616</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25332,10 +25332,10 @@
         <v>151.5357458635549</v>
       </c>
       <c r="I37" t="n">
-        <v>123.6862121416195</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J37" t="n">
-        <v>11.085091836852</v>
+        <v>11.08509183685221</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>110.585143828612</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S37" t="n">
-        <v>196.1071114281788</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T37" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>144.2131024927066</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I38" t="n">
-        <v>113.8693593270194</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>183.7012516473029</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>217.3775925405297</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>66.4768075172524</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H40" t="n">
-        <v>61.97304671827065</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I40" t="n">
-        <v>123.6862121416195</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J40" t="n">
-        <v>11.085091836852</v>
+        <v>11.08509183685221</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.585143828612</v>
+        <v>110.5851438286121</v>
       </c>
       <c r="S40" t="n">
-        <v>196.1071114281788</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T40" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>314.7099853831353</v>
+        <v>314.7099853831355</v>
       </c>
       <c r="I41" t="n">
-        <v>113.8693593270194</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>151.2037672717813</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>186.2151204747655</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>276.4201490115557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25806,10 +25806,10 @@
         <v>151.5357458635549</v>
       </c>
       <c r="I43" t="n">
-        <v>123.6862121416195</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J43" t="n">
-        <v>11.08509183685199</v>
+        <v>11.08509183685222</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>110.585143828612</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S43" t="n">
-        <v>196.1071114281788</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>41.47971976396252</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>155.5464064224171</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>115.3670268416263</v>
+        <v>37.57052179087054</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>314.7099853831355</v>
       </c>
       <c r="I44" t="n">
         <v>113.8693593270197</v>
@@ -25918,7 +25918,7 @@
         <v>151.2037672717815</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>253.1473000347972</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>151.5357458635549</v>
@@ -26046,7 +26046,7 @@
         <v>123.6862121416196</v>
       </c>
       <c r="J46" t="n">
-        <v>11.08509183685219</v>
+        <v>11.08509183685223</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>110.5851438286121</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S46" t="n">
         <v>196.1071114281789</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012334</v>
+        <v>90.10980962030601</v>
       </c>
       <c r="U46" t="n">
-        <v>144.2131024927091</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>636295.4000356633</v>
+        <v>636295.4000356629</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>636295.400035663</v>
+        <v>636295.4000356632</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>636295.400035663</v>
+        <v>636295.4000356629</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>636295.4000356629</v>
+        <v>636295.4000356632</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>717894.2656430864</v>
+        <v>717894.2656430856</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>717894.2656430865</v>
+        <v>717894.2656430857</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>717894.2656430868</v>
+        <v>717894.2656430856</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>717894.2656430866</v>
+        <v>717894.2656430857</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>717894.2656430865</v>
+        <v>717894.2656430857</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>717894.2656430862</v>
+        <v>717894.2656430857</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>717894.2656430865</v>
+        <v>717894.2656430857</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>717894.2656430857</v>
+        <v>717894.2656430856</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>267167.6173043599</v>
       </c>
       <c r="E2" t="n">
+        <v>267167.61730436</v>
+      </c>
+      <c r="F2" t="n">
         <v>267167.6173043599</v>
-      </c>
-      <c r="F2" t="n">
-        <v>267167.61730436</v>
       </c>
       <c r="G2" t="n">
         <v>267167.61730436</v>
@@ -26334,25 +26334,25 @@
         <v>267167.6173043599</v>
       </c>
       <c r="I2" t="n">
-        <v>302382.4229067771</v>
+        <v>302382.422906777</v>
       </c>
       <c r="J2" t="n">
-        <v>302382.4229067774</v>
+        <v>302382.4229067769</v>
       </c>
       <c r="K2" t="n">
-        <v>302382.4229067774</v>
+        <v>302382.4229067769</v>
       </c>
       <c r="L2" t="n">
-        <v>302382.4229067772</v>
+        <v>302382.4229067769</v>
       </c>
       <c r="M2" t="n">
-        <v>302382.4229067773</v>
+        <v>302382.4229067769</v>
       </c>
       <c r="N2" t="n">
-        <v>302382.4229067774</v>
+        <v>302382.422906777</v>
       </c>
       <c r="O2" t="n">
-        <v>302382.4229067775</v>
+        <v>302382.4229067769</v>
       </c>
       <c r="P2" t="n">
         <v>302382.4229067769</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.41716813048575e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>158130.2876379152</v>
+        <v>158130.2876379132</v>
       </c>
       <c r="J3" t="n">
-        <v>203163.713112695</v>
+        <v>203163.7131126951</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>13453.11359961298</v>
       </c>
       <c r="C4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="D4" t="n">
         <v>13453.11359961299</v>
@@ -26429,10 +26429,10 @@
         <v>13453.11359961298</v>
       </c>
       <c r="F4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="G4" t="n">
-        <v>13453.11359961298</v>
+        <v>13453.11359961299</v>
       </c>
       <c r="H4" t="n">
         <v>13453.11359961299</v>
@@ -26487,31 +26487,31 @@
         <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512782</v>
       </c>
       <c r="I5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357439</v>
       </c>
       <c r="J5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357439</v>
       </c>
       <c r="K5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357439</v>
       </c>
       <c r="L5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.5590335744</v>
       </c>
       <c r="M5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357439</v>
       </c>
       <c r="N5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357439</v>
       </c>
       <c r="O5" t="n">
-        <v>60977.55903357456</v>
+        <v>60977.55903357439</v>
       </c>
       <c r="P5" t="n">
-        <v>60977.55903357441</v>
+        <v>60977.55903357438</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87342.98877020978</v>
+        <v>-87874.08380207491</v>
       </c>
       <c r="C6" t="n">
-        <v>172876.3666496191</v>
+        <v>172345.271617754</v>
       </c>
       <c r="D6" t="n">
-        <v>172876.3666496191</v>
+        <v>172345.271617754</v>
       </c>
       <c r="E6" t="n">
-        <v>206503.9666496191</v>
+        <v>205972.871617754</v>
       </c>
       <c r="F6" t="n">
-        <v>206503.9666496192</v>
+        <v>205972.8716177539</v>
       </c>
       <c r="G6" t="n">
-        <v>206503.9666496192</v>
+        <v>205972.871617754</v>
       </c>
       <c r="H6" t="n">
-        <v>206503.9666496191</v>
+        <v>205972.8716177536</v>
       </c>
       <c r="I6" t="n">
-        <v>70302.47141868962</v>
+        <v>69939.06593731414</v>
       </c>
       <c r="J6" t="n">
-        <v>25269.04594391002</v>
+        <v>24905.64046253221</v>
       </c>
       <c r="K6" t="n">
-        <v>228432.759056605</v>
+        <v>228069.3535752272</v>
       </c>
       <c r="L6" t="n">
-        <v>228432.7590566049</v>
+        <v>228069.3535752272</v>
       </c>
       <c r="M6" t="n">
-        <v>228432.759056605</v>
+        <v>228069.3535752272</v>
       </c>
       <c r="N6" t="n">
-        <v>228432.7590566051</v>
+        <v>228069.3535752273</v>
       </c>
       <c r="O6" t="n">
-        <v>228432.7590566051</v>
+        <v>228069.3535752272</v>
       </c>
       <c r="P6" t="n">
-        <v>228432.7590566062</v>
+        <v>228069.3535752272</v>
       </c>
     </row>
   </sheetData>
@@ -26755,31 +26755,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.156779460662825e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980865</v>
       </c>
       <c r="J3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980865</v>
       </c>
       <c r="K3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980865</v>
       </c>
       <c r="L3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980866</v>
       </c>
       <c r="M3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980865</v>
       </c>
       <c r="N3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980865</v>
       </c>
       <c r="O3" t="n">
-        <v>148.9460117980883</v>
+        <v>148.9460117980864</v>
       </c>
       <c r="P3" t="n">
-        <v>148.9460117980866</v>
+        <v>148.9460117980863</v>
       </c>
     </row>
     <row r="4">
@@ -26807,31 +26807,31 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="I4" t="n">
-        <v>949.5153943482932</v>
+        <v>949.5153943482914</v>
       </c>
       <c r="J4" t="n">
-        <v>949.5153943482932</v>
+        <v>949.5153943482914</v>
       </c>
       <c r="K4" t="n">
-        <v>949.5153943482932</v>
+        <v>949.5153943482914</v>
       </c>
       <c r="L4" t="n">
-        <v>949.5153943482932</v>
+        <v>949.5153943482914</v>
       </c>
       <c r="M4" t="n">
-        <v>949.5153943482932</v>
+        <v>949.5153943482914</v>
       </c>
       <c r="N4" t="n">
-        <v>949.5153943482932</v>
+        <v>949.5153943482914</v>
       </c>
       <c r="O4" t="n">
-        <v>949.5153943482933</v>
+        <v>949.5153943482914</v>
       </c>
       <c r="P4" t="n">
-        <v>949.5153943482916</v>
+        <v>949.5153943482911</v>
       </c>
     </row>
   </sheetData>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.156779460662825e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980862</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>173.0262980468491</v>
+        <v>173.026298046847</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -32472,28 +32472,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.07709632462083e-13</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.614288182188096e-13</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2.002667235129845e-13</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2.228353171747181e-13</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.264410255737566e-13</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.138218393377904e-13</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.824919929317146e-13</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.37043886626192e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.5987779368767291</v>
       </c>
       <c r="H23" t="n">
-        <v>6.132234546038871</v>
+        <v>6.132234546038804</v>
       </c>
       <c r="I23" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144012</v>
       </c>
       <c r="J23" t="n">
-        <v>50.82052891999189</v>
+        <v>50.82052891999134</v>
       </c>
       <c r="K23" t="n">
-        <v>76.16679898798412</v>
+        <v>76.1667989879833</v>
       </c>
       <c r="L23" t="n">
-        <v>94.49164927367555</v>
+        <v>94.49164927367451</v>
       </c>
       <c r="M23" t="n">
-        <v>105.1401664086072</v>
+        <v>105.140166408606</v>
       </c>
       <c r="N23" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217571</v>
       </c>
       <c r="O23" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119391</v>
       </c>
       <c r="P23" t="n">
-        <v>86.10501579529576</v>
+        <v>86.10501579529482</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.66128093089763</v>
+        <v>64.66128093089694</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733287</v>
       </c>
       <c r="S23" t="n">
-        <v>13.64465223657863</v>
+        <v>13.64465223657848</v>
       </c>
       <c r="T23" t="n">
-        <v>2.621150418677912</v>
+        <v>2.621150418677883</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.04790223495013832</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713558</v>
       </c>
       <c r="H24" t="n">
-        <v>3.094142622447076</v>
+        <v>3.094142622447043</v>
       </c>
       <c r="I24" t="n">
-        <v>11.03043577938672</v>
+        <v>11.0304357793866</v>
       </c>
       <c r="J24" t="n">
-        <v>30.26835886926997</v>
+        <v>30.26835886926964</v>
       </c>
       <c r="K24" t="n">
-        <v>51.73344638085104</v>
+        <v>51.73344638085048</v>
       </c>
       <c r="L24" t="n">
-        <v>69.56200296287125</v>
+        <v>69.56200296287049</v>
       </c>
       <c r="M24" t="n">
-        <v>81.17557642995801</v>
+        <v>81.17557642995712</v>
       </c>
       <c r="N24" t="n">
-        <v>83.32405239259271</v>
+        <v>83.32405239259181</v>
       </c>
       <c r="O24" t="n">
-        <v>76.22522926425364</v>
+        <v>76.2252292642528</v>
       </c>
       <c r="P24" t="n">
-        <v>61.17746661948265</v>
+        <v>61.17746661948198</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.89551629595808</v>
+        <v>40.89551629595764</v>
       </c>
       <c r="R24" t="n">
-        <v>19.89131833031827</v>
+        <v>19.89131833031805</v>
       </c>
       <c r="S24" t="n">
-        <v>5.950814716650026</v>
+        <v>5.950814716649961</v>
       </c>
       <c r="T24" t="n">
-        <v>1.291333819268329</v>
+        <v>1.291333819268315</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048395</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162215</v>
       </c>
       <c r="H25" t="n">
-        <v>2.38801966456607</v>
+        <v>2.388019664566044</v>
       </c>
       <c r="I25" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673282</v>
       </c>
       <c r="J25" t="n">
-        <v>18.98939563530707</v>
+        <v>18.98939563530686</v>
       </c>
       <c r="K25" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064827</v>
       </c>
       <c r="L25" t="n">
-        <v>39.93218158927759</v>
+        <v>39.93218158927716</v>
       </c>
       <c r="M25" t="n">
-        <v>42.10288658089234</v>
+        <v>42.10288658089188</v>
       </c>
       <c r="N25" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257691</v>
       </c>
       <c r="O25" t="n">
-        <v>37.96414084322417</v>
+        <v>37.96414084322376</v>
       </c>
       <c r="P25" t="n">
-        <v>32.48488099937317</v>
+        <v>32.48488099937281</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151106</v>
       </c>
       <c r="R25" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513665</v>
       </c>
       <c r="S25" t="n">
-        <v>4.680811551097292</v>
+        <v>4.68081155109724</v>
       </c>
       <c r="T25" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214764</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997574</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5987779368767358</v>
+        <v>0.5987779368767291</v>
       </c>
       <c r="H26" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038804</v>
       </c>
       <c r="I26" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144012</v>
       </c>
       <c r="J26" t="n">
-        <v>50.82052891999189</v>
+        <v>50.82052891999134</v>
       </c>
       <c r="K26" t="n">
-        <v>76.16679898798412</v>
+        <v>76.1667989879833</v>
       </c>
       <c r="L26" t="n">
-        <v>94.49164927367553</v>
+        <v>94.49164927367451</v>
       </c>
       <c r="M26" t="n">
-        <v>105.1401664086072</v>
+        <v>105.140166408606</v>
       </c>
       <c r="N26" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217571</v>
       </c>
       <c r="O26" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119391</v>
       </c>
       <c r="P26" t="n">
-        <v>86.10501579529576</v>
+        <v>86.10501579529482</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.66128093089763</v>
+        <v>64.66128093089694</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733287</v>
       </c>
       <c r="S26" t="n">
-        <v>13.64465223657863</v>
+        <v>13.64465223657848</v>
       </c>
       <c r="T26" t="n">
-        <v>2.621150418677912</v>
+        <v>2.621150418677883</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.04790223495013832</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713558</v>
       </c>
       <c r="H27" t="n">
-        <v>3.094142622447076</v>
+        <v>3.094142622447043</v>
       </c>
       <c r="I27" t="n">
-        <v>11.03043577938671</v>
+        <v>11.0304357793866</v>
       </c>
       <c r="J27" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926964</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085048</v>
       </c>
       <c r="L27" t="n">
-        <v>69.56200296287125</v>
+        <v>69.56200296287049</v>
       </c>
       <c r="M27" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995712</v>
       </c>
       <c r="N27" t="n">
-        <v>83.32405239259271</v>
+        <v>83.32405239259181</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425364</v>
+        <v>76.2252292642528</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948265</v>
+        <v>61.17746661948198</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.89551629595808</v>
+        <v>40.89551629595764</v>
       </c>
       <c r="R27" t="n">
-        <v>19.89131833031827</v>
+        <v>19.89131833031805</v>
       </c>
       <c r="S27" t="n">
-        <v>5.950814716650026</v>
+        <v>5.950814716649961</v>
       </c>
       <c r="T27" t="n">
-        <v>1.291333819268329</v>
+        <v>1.291333819268315</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048395</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162215</v>
       </c>
       <c r="H28" t="n">
-        <v>2.38801966456607</v>
+        <v>2.388019664566044</v>
       </c>
       <c r="I28" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673282</v>
       </c>
       <c r="J28" t="n">
-        <v>18.98939563530707</v>
+        <v>18.98939563530686</v>
       </c>
       <c r="K28" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064827</v>
       </c>
       <c r="L28" t="n">
-        <v>39.93218158927759</v>
+        <v>39.93218158927716</v>
       </c>
       <c r="M28" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089188</v>
       </c>
       <c r="N28" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257691</v>
       </c>
       <c r="O28" t="n">
-        <v>37.96414084322417</v>
+        <v>37.96414084322376</v>
       </c>
       <c r="P28" t="n">
-        <v>32.48488099937317</v>
+        <v>32.48488099937281</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151106</v>
       </c>
       <c r="R28" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513665</v>
       </c>
       <c r="S28" t="n">
-        <v>4.680811551097291</v>
+        <v>4.68081155109724</v>
       </c>
       <c r="T28" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214764</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997574</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.5987779368767293</v>
       </c>
       <c r="H29" t="n">
-        <v>6.132234546038871</v>
+        <v>6.132234546038805</v>
       </c>
       <c r="I29" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144013</v>
       </c>
       <c r="J29" t="n">
-        <v>50.82052891999189</v>
+        <v>50.82052891999135</v>
       </c>
       <c r="K29" t="n">
-        <v>76.16679898798412</v>
+        <v>76.16679898798331</v>
       </c>
       <c r="L29" t="n">
-        <v>94.49164927367555</v>
+        <v>94.49164927367454</v>
       </c>
       <c r="M29" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086061</v>
       </c>
       <c r="N29" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217571</v>
       </c>
       <c r="O29" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119391</v>
       </c>
       <c r="P29" t="n">
-        <v>86.10501579529576</v>
+        <v>86.10501579529483</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.66128093089763</v>
+        <v>64.66128093089694</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733288</v>
       </c>
       <c r="S29" t="n">
-        <v>13.64465223657863</v>
+        <v>13.64465223657848</v>
       </c>
       <c r="T29" t="n">
-        <v>2.621150418677912</v>
+        <v>2.621150418677884</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.04790223495013833</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713559</v>
       </c>
       <c r="H30" t="n">
-        <v>3.094142622447076</v>
+        <v>3.094142622447043</v>
       </c>
       <c r="I30" t="n">
-        <v>11.03043577938672</v>
+        <v>11.0304357793866</v>
       </c>
       <c r="J30" t="n">
-        <v>30.26835886926997</v>
+        <v>30.26835886926964</v>
       </c>
       <c r="K30" t="n">
-        <v>51.73344638085104</v>
+        <v>51.73344638085049</v>
       </c>
       <c r="L30" t="n">
-        <v>69.56200296287125</v>
+        <v>69.56200296287051</v>
       </c>
       <c r="M30" t="n">
-        <v>81.17557642995801</v>
+        <v>81.17557642995715</v>
       </c>
       <c r="N30" t="n">
-        <v>83.32405239259271</v>
+        <v>83.32405239259182</v>
       </c>
       <c r="O30" t="n">
-        <v>76.22522926425364</v>
+        <v>76.22522926425282</v>
       </c>
       <c r="P30" t="n">
-        <v>61.17746661948265</v>
+        <v>61.177466619482</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.89551629595808</v>
+        <v>40.89551629595765</v>
       </c>
       <c r="R30" t="n">
-        <v>19.89131833031827</v>
+        <v>19.89131833031805</v>
       </c>
       <c r="S30" t="n">
-        <v>5.950814716650026</v>
+        <v>5.950814716649962</v>
       </c>
       <c r="T30" t="n">
-        <v>1.291333819268329</v>
+        <v>1.291333819268316</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048395</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162216</v>
       </c>
       <c r="H31" t="n">
-        <v>2.38801966456607</v>
+        <v>2.388019664566044</v>
       </c>
       <c r="I31" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673284</v>
       </c>
       <c r="J31" t="n">
-        <v>18.98939563530707</v>
+        <v>18.98939563530686</v>
       </c>
       <c r="K31" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064828</v>
       </c>
       <c r="L31" t="n">
-        <v>39.93218158927759</v>
+        <v>39.93218158927716</v>
       </c>
       <c r="M31" t="n">
-        <v>42.10288658089234</v>
+        <v>42.10288658089189</v>
       </c>
       <c r="N31" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257691</v>
       </c>
       <c r="O31" t="n">
-        <v>37.96414084322417</v>
+        <v>37.96414084322377</v>
       </c>
       <c r="P31" t="n">
-        <v>32.48488099937317</v>
+        <v>32.48488099937282</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151106</v>
       </c>
       <c r="R31" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513665</v>
       </c>
       <c r="S31" t="n">
-        <v>4.680811551097292</v>
+        <v>4.680811551097241</v>
       </c>
       <c r="T31" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214765</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997574</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.5987779368767298</v>
       </c>
       <c r="H32" t="n">
-        <v>6.132234546038871</v>
+        <v>6.13223454603881</v>
       </c>
       <c r="I32" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144015</v>
       </c>
       <c r="J32" t="n">
-        <v>50.82052891999189</v>
+        <v>50.82052891999138</v>
       </c>
       <c r="K32" t="n">
-        <v>76.16679898798412</v>
+        <v>76.16679898798337</v>
       </c>
       <c r="L32" t="n">
-        <v>94.49164927367555</v>
+        <v>94.49164927367461</v>
       </c>
       <c r="M32" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086061</v>
       </c>
       <c r="N32" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217572</v>
       </c>
       <c r="O32" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119392</v>
       </c>
       <c r="P32" t="n">
-        <v>86.10501579529576</v>
+        <v>86.10501579529489</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.66128093089763</v>
+        <v>64.66128093089699</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733291</v>
       </c>
       <c r="S32" t="n">
-        <v>13.64465223657863</v>
+        <v>13.64465223657849</v>
       </c>
       <c r="T32" t="n">
-        <v>2.621150418677912</v>
+        <v>2.621150418677886</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.04790223495013837</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713562</v>
       </c>
       <c r="H33" t="n">
-        <v>3.094142622447076</v>
+        <v>3.094142622447046</v>
       </c>
       <c r="I33" t="n">
-        <v>11.03043577938672</v>
+        <v>11.03043577938661</v>
       </c>
       <c r="J33" t="n">
-        <v>30.26835886926997</v>
+        <v>30.26835886926967</v>
       </c>
       <c r="K33" t="n">
-        <v>51.73344638085104</v>
+        <v>51.73344638085053</v>
       </c>
       <c r="L33" t="n">
-        <v>69.56200296287125</v>
+        <v>69.56200296287057</v>
       </c>
       <c r="M33" t="n">
-        <v>81.17557642995801</v>
+        <v>81.1755764299572</v>
       </c>
       <c r="N33" t="n">
-        <v>83.32405239259271</v>
+        <v>83.32405239259188</v>
       </c>
       <c r="O33" t="n">
-        <v>76.22522926425364</v>
+        <v>76.22522926425287</v>
       </c>
       <c r="P33" t="n">
-        <v>61.17746661948265</v>
+        <v>61.17746661948204</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.89551629595808</v>
+        <v>40.89551629595768</v>
       </c>
       <c r="R33" t="n">
-        <v>19.89131833031827</v>
+        <v>19.89131833031807</v>
       </c>
       <c r="S33" t="n">
-        <v>5.950814716650026</v>
+        <v>5.950814716649966</v>
       </c>
       <c r="T33" t="n">
-        <v>1.291333819268329</v>
+        <v>1.291333819268317</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048397</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162217</v>
       </c>
       <c r="H34" t="n">
-        <v>2.38801966456607</v>
+        <v>2.388019664566046</v>
       </c>
       <c r="I34" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673289</v>
       </c>
       <c r="J34" t="n">
-        <v>18.98939563530707</v>
+        <v>18.98939563530688</v>
       </c>
       <c r="K34" t="n">
-        <v>31.20541034064861</v>
+        <v>31.2054103406483</v>
       </c>
       <c r="L34" t="n">
-        <v>39.93218158927759</v>
+        <v>39.93218158927719</v>
       </c>
       <c r="M34" t="n">
-        <v>42.10288658089234</v>
+        <v>42.10288658089192</v>
       </c>
       <c r="N34" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257695</v>
       </c>
       <c r="O34" t="n">
-        <v>37.96414084322417</v>
+        <v>37.9641408432238</v>
       </c>
       <c r="P34" t="n">
-        <v>32.48488099937317</v>
+        <v>32.48488099937285</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151108</v>
       </c>
       <c r="R34" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513666</v>
       </c>
       <c r="S34" t="n">
-        <v>4.680811551097292</v>
+        <v>4.680811551097245</v>
       </c>
       <c r="T34" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214765</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997575</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5987779368767356</v>
+        <v>0.598777936876729</v>
       </c>
       <c r="H35" t="n">
-        <v>6.132234546038871</v>
+        <v>6.132234546038803</v>
       </c>
       <c r="I35" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144012</v>
       </c>
       <c r="J35" t="n">
-        <v>50.82052891999189</v>
+        <v>50.82052891999133</v>
       </c>
       <c r="K35" t="n">
-        <v>76.16679898798412</v>
+        <v>76.16679898798328</v>
       </c>
       <c r="L35" t="n">
-        <v>94.49164927367555</v>
+        <v>94.4916492736745</v>
       </c>
       <c r="M35" t="n">
-        <v>105.1401664086072</v>
+        <v>105.140166408606</v>
       </c>
       <c r="N35" t="n">
-        <v>106.8414442217582</v>
+        <v>106.841444221757</v>
       </c>
       <c r="O35" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119391</v>
       </c>
       <c r="P35" t="n">
-        <v>86.10501579529576</v>
+        <v>86.10501579529479</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.66128093089763</v>
+        <v>64.66128093089692</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733287</v>
       </c>
       <c r="S35" t="n">
-        <v>13.64465223657863</v>
+        <v>13.64465223657848</v>
       </c>
       <c r="T35" t="n">
-        <v>2.621150418677912</v>
+        <v>2.621150418677883</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04790223495013884</v>
+        <v>0.04790223495013831</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713558</v>
       </c>
       <c r="H36" t="n">
-        <v>3.094142622447076</v>
+        <v>3.094142622447042</v>
       </c>
       <c r="I36" t="n">
-        <v>11.03043577938672</v>
+        <v>11.03043577938659</v>
       </c>
       <c r="J36" t="n">
-        <v>30.26835886926997</v>
+        <v>30.26835886926963</v>
       </c>
       <c r="K36" t="n">
-        <v>51.73344638085104</v>
+        <v>51.73344638085047</v>
       </c>
       <c r="L36" t="n">
-        <v>69.56200296287125</v>
+        <v>69.56200296287048</v>
       </c>
       <c r="M36" t="n">
-        <v>81.17557642995801</v>
+        <v>81.1755764299571</v>
       </c>
       <c r="N36" t="n">
-        <v>83.32405239259271</v>
+        <v>83.32405239259178</v>
       </c>
       <c r="O36" t="n">
-        <v>76.22522926425364</v>
+        <v>76.22522926425279</v>
       </c>
       <c r="P36" t="n">
-        <v>61.17746661948265</v>
+        <v>61.17746661948197</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.89551629595808</v>
+        <v>40.89551629595763</v>
       </c>
       <c r="R36" t="n">
-        <v>19.89131833031827</v>
+        <v>19.89131833031805</v>
       </c>
       <c r="S36" t="n">
-        <v>5.950814716650026</v>
+        <v>5.95081471664996</v>
       </c>
       <c r="T36" t="n">
-        <v>1.291333819268329</v>
+        <v>1.291333819268315</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048394</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162215</v>
       </c>
       <c r="H37" t="n">
-        <v>2.38801966456607</v>
+        <v>2.388019664566043</v>
       </c>
       <c r="I37" t="n">
-        <v>8.077268967673369</v>
+        <v>8.07726896767328</v>
       </c>
       <c r="J37" t="n">
-        <v>18.98939563530707</v>
+        <v>18.98939563530686</v>
       </c>
       <c r="K37" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064827</v>
       </c>
       <c r="L37" t="n">
-        <v>39.93218158927759</v>
+        <v>39.93218158927715</v>
       </c>
       <c r="M37" t="n">
-        <v>42.10288658089234</v>
+        <v>42.10288658089187</v>
       </c>
       <c r="N37" t="n">
-        <v>41.10177404257735</v>
+        <v>41.1017740425769</v>
       </c>
       <c r="O37" t="n">
-        <v>37.96414084322417</v>
+        <v>37.96414084322375</v>
       </c>
       <c r="P37" t="n">
-        <v>32.48488099937317</v>
+        <v>32.48488099937281</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151105</v>
       </c>
       <c r="R37" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513665</v>
       </c>
       <c r="S37" t="n">
-        <v>4.680811551097292</v>
+        <v>4.680811551097239</v>
       </c>
       <c r="T37" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214764</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997573</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5987779368767358</v>
+        <v>0.5987779368767293</v>
       </c>
       <c r="H38" t="n">
-        <v>6.132234546038871</v>
+        <v>6.132234546038805</v>
       </c>
       <c r="I38" t="n">
-        <v>23.08438641144038</v>
+        <v>23.08438641144013</v>
       </c>
       <c r="J38" t="n">
-        <v>50.8205289199919</v>
+        <v>50.82052891999135</v>
       </c>
       <c r="K38" t="n">
-        <v>76.16679898798414</v>
+        <v>76.16679898798331</v>
       </c>
       <c r="L38" t="n">
-        <v>94.49164927367556</v>
+        <v>94.49164927367454</v>
       </c>
       <c r="M38" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086061</v>
       </c>
       <c r="N38" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217571</v>
       </c>
       <c r="O38" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119391</v>
       </c>
       <c r="P38" t="n">
-        <v>86.10501579529577</v>
+        <v>86.10501579529483</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.66128093089765</v>
+        <v>64.66128093089694</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733329</v>
+        <v>37.61298457733288</v>
       </c>
       <c r="S38" t="n">
-        <v>13.64465223657863</v>
+        <v>13.64465223657848</v>
       </c>
       <c r="T38" t="n">
-        <v>2.621150418677912</v>
+        <v>2.621150418677884</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04790223495013885</v>
+        <v>0.04790223495013833</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3203744404713594</v>
+        <v>0.3203744404713559</v>
       </c>
       <c r="H39" t="n">
-        <v>3.094142622447077</v>
+        <v>3.094142622447043</v>
       </c>
       <c r="I39" t="n">
-        <v>11.03043577938672</v>
+        <v>11.0304357793866</v>
       </c>
       <c r="J39" t="n">
-        <v>30.26835886926997</v>
+        <v>30.26835886926964</v>
       </c>
       <c r="K39" t="n">
-        <v>51.73344638085105</v>
+        <v>51.73344638085049</v>
       </c>
       <c r="L39" t="n">
-        <v>69.56200296287126</v>
+        <v>69.56200296287051</v>
       </c>
       <c r="M39" t="n">
-        <v>81.17557642995803</v>
+        <v>81.17557642995715</v>
       </c>
       <c r="N39" t="n">
-        <v>83.32405239259272</v>
+        <v>83.32405239259182</v>
       </c>
       <c r="O39" t="n">
-        <v>76.22522926425366</v>
+        <v>76.22522926425282</v>
       </c>
       <c r="P39" t="n">
-        <v>61.17746661948266</v>
+        <v>61.177466619482</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.89551629595809</v>
+        <v>40.89551629595765</v>
       </c>
       <c r="R39" t="n">
-        <v>19.89131833031827</v>
+        <v>19.89131833031805</v>
       </c>
       <c r="S39" t="n">
-        <v>5.950814716650027</v>
+        <v>5.950814716649962</v>
       </c>
       <c r="T39" t="n">
-        <v>1.29133381926833</v>
+        <v>1.291333819268316</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02107726582048418</v>
+        <v>0.02107726582048395</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2685911688162245</v>
+        <v>0.2685911688162216</v>
       </c>
       <c r="H40" t="n">
-        <v>2.38801966456607</v>
+        <v>2.388019664566044</v>
       </c>
       <c r="I40" t="n">
-        <v>8.077268967673371</v>
+        <v>8.077268967673284</v>
       </c>
       <c r="J40" t="n">
-        <v>18.98939563530707</v>
+        <v>18.98939563530686</v>
       </c>
       <c r="K40" t="n">
-        <v>31.20541034064862</v>
+        <v>31.20541034064828</v>
       </c>
       <c r="L40" t="n">
-        <v>39.9321815892776</v>
+        <v>39.93218158927716</v>
       </c>
       <c r="M40" t="n">
-        <v>42.10288658089235</v>
+        <v>42.10288658089189</v>
       </c>
       <c r="N40" t="n">
-        <v>41.10177404257736</v>
+        <v>41.10177404257691</v>
       </c>
       <c r="O40" t="n">
-        <v>37.96414084322418</v>
+        <v>37.96414084322377</v>
       </c>
       <c r="P40" t="n">
-        <v>32.48488099937317</v>
+        <v>32.48488099937282</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.49084778151131</v>
+        <v>22.49084778151106</v>
       </c>
       <c r="R40" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513665</v>
       </c>
       <c r="S40" t="n">
-        <v>4.680811551097293</v>
+        <v>4.680811551097241</v>
       </c>
       <c r="T40" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214765</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0146504273899759</v>
+        <v>0.01465042738997574</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5987779368767362</v>
+        <v>0.5987779368767288</v>
       </c>
       <c r="H41" t="n">
-        <v>6.132234546038877</v>
+        <v>6.1322345460388</v>
       </c>
       <c r="I41" t="n">
-        <v>23.08438641144039</v>
+        <v>23.08438641144011</v>
       </c>
       <c r="J41" t="n">
-        <v>50.82052891999194</v>
+        <v>50.82052891999131</v>
       </c>
       <c r="K41" t="n">
-        <v>76.16679898798419</v>
+        <v>76.16679898798326</v>
       </c>
       <c r="L41" t="n">
-        <v>94.49164927367563</v>
+        <v>94.49164927367447</v>
       </c>
       <c r="M41" t="n">
-        <v>105.1401664086073</v>
+        <v>105.140166408606</v>
       </c>
       <c r="N41" t="n">
-        <v>106.8414442217583</v>
+        <v>106.841444221757</v>
       </c>
       <c r="O41" t="n">
-        <v>100.8873461119403</v>
+        <v>100.887346111939</v>
       </c>
       <c r="P41" t="n">
-        <v>86.10501579529583</v>
+        <v>86.10501579529476</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.66128093089769</v>
+        <v>64.66128093089689</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733331</v>
+        <v>37.61298457733285</v>
       </c>
       <c r="S41" t="n">
-        <v>13.64465223657864</v>
+        <v>13.64465223657847</v>
       </c>
       <c r="T41" t="n">
-        <v>2.621150418677914</v>
+        <v>2.621150418677882</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04790223495013889</v>
+        <v>0.0479022349501383</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3203744404713597</v>
+        <v>0.3203744404713557</v>
       </c>
       <c r="H42" t="n">
-        <v>3.094142622447079</v>
+        <v>3.094142622447041</v>
       </c>
       <c r="I42" t="n">
-        <v>11.03043577938673</v>
+        <v>11.03043577938659</v>
       </c>
       <c r="J42" t="n">
-        <v>30.26835886927</v>
+        <v>30.26835886926962</v>
       </c>
       <c r="K42" t="n">
-        <v>51.73344638085109</v>
+        <v>51.73344638085045</v>
       </c>
       <c r="L42" t="n">
-        <v>69.56200296287132</v>
+        <v>69.56200296287045</v>
       </c>
       <c r="M42" t="n">
-        <v>81.17557642995808</v>
+        <v>81.17557642995708</v>
       </c>
       <c r="N42" t="n">
-        <v>83.32405239259279</v>
+        <v>83.32405239259175</v>
       </c>
       <c r="O42" t="n">
-        <v>76.22522926425371</v>
+        <v>76.22522926425276</v>
       </c>
       <c r="P42" t="n">
-        <v>61.17746661948271</v>
+        <v>61.17746661948195</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.89551629595812</v>
+        <v>40.89551629595761</v>
       </c>
       <c r="R42" t="n">
-        <v>19.89131833031828</v>
+        <v>19.89131833031804</v>
       </c>
       <c r="S42" t="n">
-        <v>5.950814716650031</v>
+        <v>5.950814716649957</v>
       </c>
       <c r="T42" t="n">
-        <v>1.291333819268331</v>
+        <v>1.291333819268315</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0210772658204842</v>
+        <v>0.02107726582048394</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2685911688162247</v>
+        <v>0.2685911688162214</v>
       </c>
       <c r="H43" t="n">
-        <v>2.388019664566072</v>
+        <v>2.388019664566043</v>
       </c>
       <c r="I43" t="n">
-        <v>8.077268967673378</v>
+        <v>8.077268967673277</v>
       </c>
       <c r="J43" t="n">
-        <v>18.98939563530708</v>
+        <v>18.98939563530685</v>
       </c>
       <c r="K43" t="n">
-        <v>31.20541034064864</v>
+        <v>31.20541034064826</v>
       </c>
       <c r="L43" t="n">
-        <v>39.93218158927763</v>
+        <v>39.93218158927714</v>
       </c>
       <c r="M43" t="n">
-        <v>42.10288658089238</v>
+        <v>42.10288658089186</v>
       </c>
       <c r="N43" t="n">
-        <v>41.1017740425774</v>
+        <v>41.10177404257688</v>
       </c>
       <c r="O43" t="n">
-        <v>37.96414084322421</v>
+        <v>37.96414084322374</v>
       </c>
       <c r="P43" t="n">
-        <v>32.4848809993732</v>
+        <v>32.4848809993728</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.49084778151132</v>
+        <v>22.49084778151105</v>
       </c>
       <c r="R43" t="n">
-        <v>12.07683564513679</v>
+        <v>12.07683564513664</v>
       </c>
       <c r="S43" t="n">
-        <v>4.680811551097296</v>
+        <v>4.680811551097237</v>
       </c>
       <c r="T43" t="n">
-        <v>1.147616812214778</v>
+        <v>1.147616812214764</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01465042738997591</v>
+        <v>0.01465042738997573</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767298</v>
+        <v>0.5987779368767285</v>
       </c>
       <c r="H44" t="n">
-        <v>6.13223454603881</v>
+        <v>6.132234546038798</v>
       </c>
       <c r="I44" t="n">
-        <v>23.08438641144015</v>
+        <v>23.0843864114401</v>
       </c>
       <c r="J44" t="n">
-        <v>50.82052891999138</v>
+        <v>50.82052891999129</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798337</v>
+        <v>76.16679898798323</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367461</v>
+        <v>94.49164927367443</v>
       </c>
       <c r="M44" t="n">
-        <v>105.1401664086061</v>
+        <v>105.1401664086059</v>
       </c>
       <c r="N44" t="n">
-        <v>106.8414442217572</v>
+        <v>106.841444221757</v>
       </c>
       <c r="O44" t="n">
-        <v>100.8873461119392</v>
+        <v>100.887346111939</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529489</v>
+        <v>86.10501579529473</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089699</v>
+        <v>64.66128093089687</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733291</v>
+        <v>37.61298457733283</v>
       </c>
       <c r="S44" t="n">
-        <v>13.64465223657849</v>
+        <v>13.64465223657847</v>
       </c>
       <c r="T44" t="n">
-        <v>2.621150418677886</v>
+        <v>2.62115041867788</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013837</v>
+        <v>0.04790223495013828</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713562</v>
+        <v>0.3203744404713555</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447046</v>
+        <v>3.094142622447039</v>
       </c>
       <c r="I45" t="n">
-        <v>11.03043577938661</v>
+        <v>11.03043577938658</v>
       </c>
       <c r="J45" t="n">
-        <v>30.26835886926967</v>
+        <v>30.26835886926961</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085053</v>
+        <v>51.73344638085043</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287057</v>
+        <v>69.56200296287042</v>
       </c>
       <c r="M45" t="n">
-        <v>81.1755764299572</v>
+        <v>81.17557642995705</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259188</v>
+        <v>83.32405239259172</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425287</v>
+        <v>76.22522926425273</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948204</v>
+        <v>61.17746661948193</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.89551629595768</v>
+        <v>40.8955162959576</v>
       </c>
       <c r="R45" t="n">
-        <v>19.89131833031807</v>
+        <v>19.89131833031803</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716649966</v>
+        <v>5.950814716649956</v>
       </c>
       <c r="T45" t="n">
-        <v>1.291333819268317</v>
+        <v>1.291333819268314</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048397</v>
+        <v>0.02107726582048393</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162217</v>
+        <v>0.2685911688162212</v>
       </c>
       <c r="H46" t="n">
-        <v>2.388019664566046</v>
+        <v>2.388019664566042</v>
       </c>
       <c r="I46" t="n">
-        <v>8.077268967673289</v>
+        <v>8.077268967673275</v>
       </c>
       <c r="J46" t="n">
-        <v>18.98939563530688</v>
+        <v>18.98939563530684</v>
       </c>
       <c r="K46" t="n">
-        <v>31.2054103406483</v>
+        <v>31.20541034064824</v>
       </c>
       <c r="L46" t="n">
-        <v>39.93218158927719</v>
+        <v>39.93218158927712</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089192</v>
+        <v>42.10288658089184</v>
       </c>
       <c r="N46" t="n">
-        <v>41.10177404257695</v>
+        <v>41.10177404257687</v>
       </c>
       <c r="O46" t="n">
-        <v>37.9641408432238</v>
+        <v>37.96414084322372</v>
       </c>
       <c r="P46" t="n">
-        <v>32.48488099937285</v>
+        <v>32.48488099937278</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.49084778151108</v>
+        <v>22.49084778151104</v>
       </c>
       <c r="R46" t="n">
-        <v>12.07683564513666</v>
+        <v>12.07683564513664</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097245</v>
+        <v>4.680811551097236</v>
       </c>
       <c r="T46" t="n">
-        <v>1.147616812214765</v>
+        <v>1.147616812214763</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01465042738997575</v>
+        <v>0.01465042738997572</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>32.81159323632068</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34792,10 +34792,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>634.1127774006881</v>
@@ -35029,13 +35029,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>284.5297693407883</v>
       </c>
       <c r="P6" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>287.7334829729927</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35743,10 +35743,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35980,10 +35980,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260891</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317798</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682112</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510917</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449114</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N21" t="n">
-        <v>486.5023077495127</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460803</v>
       </c>
       <c r="K23" t="n">
-        <v>438.7752394197637</v>
+        <v>438.7752394197629</v>
       </c>
       <c r="L23" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418855</v>
       </c>
       <c r="M23" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596976</v>
       </c>
       <c r="N23" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666683</v>
       </c>
       <c r="O23" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577254</v>
       </c>
       <c r="P23" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018825</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.3739679419568</v>
+        <v>251.3739679419561</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>374.7022807871398</v>
       </c>
       <c r="L24" t="n">
-        <v>558.0125947793492</v>
+        <v>558.0125947793485</v>
       </c>
       <c r="M24" t="n">
-        <v>715.2883538306461</v>
+        <v>715.2883538306452</v>
       </c>
       <c r="N24" t="n">
-        <v>745.7260435143696</v>
+        <v>651.3057009686631</v>
       </c>
       <c r="O24" t="n">
-        <v>280.2819382414323</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36518,25 +36518,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>113.8670680274586</v>
+        <v>113.8670680274582</v>
       </c>
       <c r="L25" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112971</v>
       </c>
       <c r="M25" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336838</v>
       </c>
       <c r="N25" t="n">
-        <v>226.1418084175361</v>
+        <v>226.1418084175357</v>
       </c>
       <c r="O25" t="n">
-        <v>202.312390380303</v>
+        <v>202.3123903803026</v>
       </c>
       <c r="P25" t="n">
-        <v>153.5719171373313</v>
+        <v>153.571917137331</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.94761179166379</v>
+        <v>25.94761179166354</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460803</v>
       </c>
       <c r="K26" t="n">
-        <v>438.7752394197637</v>
+        <v>438.7752394197629</v>
       </c>
       <c r="L26" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418855</v>
       </c>
       <c r="M26" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596976</v>
       </c>
       <c r="N26" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666683</v>
       </c>
       <c r="O26" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577254</v>
       </c>
       <c r="P26" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018825</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.3739679419568</v>
+        <v>251.3739679419561</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>374.7022807871398</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>558.0125947793485</v>
       </c>
       <c r="M27" t="n">
-        <v>715.2883538306461</v>
+        <v>715.2883538306452</v>
       </c>
       <c r="N27" t="n">
-        <v>745.7260435143696</v>
+        <v>180.4096800901938</v>
       </c>
       <c r="O27" t="n">
-        <v>597.9628884470628</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>240.3316445737181</v>
+        <v>470.8960208784693</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>113.8670680274586</v>
+        <v>113.8670680274582</v>
       </c>
       <c r="L28" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112971</v>
       </c>
       <c r="M28" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336838</v>
       </c>
       <c r="N28" t="n">
-        <v>226.1418084175361</v>
+        <v>226.1418084175357</v>
       </c>
       <c r="O28" t="n">
-        <v>202.312390380303</v>
+        <v>202.3123903803026</v>
       </c>
       <c r="P28" t="n">
-        <v>153.5719171373313</v>
+        <v>153.571917137331</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.94761179166379</v>
+        <v>25.94761179166354</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460803</v>
       </c>
       <c r="K29" t="n">
-        <v>438.7752394197637</v>
+        <v>438.775239419763</v>
       </c>
       <c r="L29" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418855</v>
       </c>
       <c r="M29" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596976</v>
       </c>
       <c r="N29" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666683</v>
       </c>
       <c r="O29" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577254</v>
       </c>
       <c r="P29" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018825</v>
       </c>
       <c r="Q29" t="n">
-        <v>251.3739679419568</v>
+        <v>251.3739679419561</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>374.7022807871398</v>
       </c>
       <c r="L30" t="n">
-        <v>240.3316445737181</v>
+        <v>558.0125947793485</v>
       </c>
       <c r="M30" t="n">
-        <v>715.2883538306461</v>
+        <v>715.2883538306452</v>
       </c>
       <c r="N30" t="n">
-        <v>745.7260435143696</v>
+        <v>180.4096800901938</v>
       </c>
       <c r="O30" t="n">
-        <v>597.9628884470628</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>470.8960208784693</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36992,25 +36992,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>113.8670680274586</v>
+        <v>113.8670680274583</v>
       </c>
       <c r="L31" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112971</v>
       </c>
       <c r="M31" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336838</v>
       </c>
       <c r="N31" t="n">
-        <v>226.1418084175361</v>
+        <v>226.1418084175357</v>
       </c>
       <c r="O31" t="n">
-        <v>202.312390380303</v>
+        <v>202.3123903803026</v>
       </c>
       <c r="P31" t="n">
-        <v>153.5719171373313</v>
+        <v>153.571917137331</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.94761179166379</v>
+        <v>25.94761179166355</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460804</v>
       </c>
       <c r="K32" t="n">
-        <v>438.7752394197637</v>
+        <v>438.775239419763</v>
       </c>
       <c r="L32" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418856</v>
       </c>
       <c r="M32" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596976</v>
       </c>
       <c r="N32" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666683</v>
       </c>
       <c r="O32" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577255</v>
       </c>
       <c r="P32" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018826</v>
       </c>
       <c r="Q32" t="n">
-        <v>251.3739679419568</v>
+        <v>251.3739679419561</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>374.7022807871398</v>
       </c>
       <c r="L33" t="n">
-        <v>558.0125947793492</v>
+        <v>558.0125947793485</v>
       </c>
       <c r="M33" t="n">
-        <v>715.2883538306461</v>
+        <v>297.7351454737768</v>
       </c>
       <c r="N33" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>280.2819382414323</v>
+        <v>597.962888447062</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>470.8960208784694</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37229,25 +37229,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>113.8670680274586</v>
+        <v>113.8670680274583</v>
       </c>
       <c r="L34" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112972</v>
       </c>
       <c r="M34" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336839</v>
       </c>
       <c r="N34" t="n">
-        <v>226.1418084175361</v>
+        <v>226.1418084175357</v>
       </c>
       <c r="O34" t="n">
-        <v>202.312390380303</v>
+        <v>202.3123903803026</v>
       </c>
       <c r="P34" t="n">
-        <v>153.5719171373313</v>
+        <v>153.571917137331</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.94761179166379</v>
+        <v>25.94761179166357</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460803</v>
       </c>
       <c r="K35" t="n">
-        <v>438.7752394197637</v>
+        <v>438.7752394197629</v>
       </c>
       <c r="L35" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418855</v>
       </c>
       <c r="M35" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596975</v>
       </c>
       <c r="N35" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666681</v>
       </c>
       <c r="O35" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577253</v>
       </c>
       <c r="P35" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018825</v>
       </c>
       <c r="Q35" t="n">
-        <v>251.3739679419568</v>
+        <v>251.373967941956</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>374.7022807871398</v>
       </c>
       <c r="L36" t="n">
-        <v>558.0125947793492</v>
+        <v>558.0125947793485</v>
       </c>
       <c r="M36" t="n">
-        <v>715.2883538306461</v>
+        <v>715.2883538306452</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>280.2819382414314</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>470.8960208784692</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>180.409680090194</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>113.8670680274586</v>
+        <v>113.8670680274582</v>
       </c>
       <c r="L37" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112971</v>
       </c>
       <c r="M37" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336838</v>
       </c>
       <c r="N37" t="n">
-        <v>226.1418084175361</v>
+        <v>226.1418084175357</v>
       </c>
       <c r="O37" t="n">
-        <v>202.312390380303</v>
+        <v>202.3123903803026</v>
       </c>
       <c r="P37" t="n">
-        <v>153.5719171373313</v>
+        <v>153.571917137331</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.94761179166379</v>
+        <v>25.94761179166354</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460803</v>
       </c>
       <c r="K38" t="n">
-        <v>438.7752394197637</v>
+        <v>438.775239419763</v>
       </c>
       <c r="L38" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418855</v>
       </c>
       <c r="M38" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596976</v>
       </c>
       <c r="N38" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666683</v>
       </c>
       <c r="O38" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577254</v>
       </c>
       <c r="P38" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018825</v>
       </c>
       <c r="Q38" t="n">
-        <v>251.3739679419568</v>
+        <v>251.3739679419561</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>144.5259166669741</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>374.7022807871398</v>
       </c>
       <c r="L39" t="n">
-        <v>558.0125947793493</v>
+        <v>558.0125947793485</v>
       </c>
       <c r="M39" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>280.2819382414314</v>
+        <v>473.5441852458969</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>470.8960208784693</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>277.6279320079682</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>113.8670680274586</v>
+        <v>113.8670680274583</v>
       </c>
       <c r="L40" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112971</v>
       </c>
       <c r="M40" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336838</v>
       </c>
       <c r="N40" t="n">
-        <v>226.1418084175361</v>
+        <v>226.1418084175357</v>
       </c>
       <c r="O40" t="n">
-        <v>202.312390380303</v>
+        <v>202.3123903803026</v>
       </c>
       <c r="P40" t="n">
-        <v>153.5719171373314</v>
+        <v>153.571917137331</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.94761179166379</v>
+        <v>25.94761179166355</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460803</v>
       </c>
       <c r="K41" t="n">
-        <v>438.7752394197638</v>
+        <v>438.7752394197629</v>
       </c>
       <c r="L41" t="n">
-        <v>592.7949742418866</v>
+        <v>592.7949742418855</v>
       </c>
       <c r="M41" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596975</v>
       </c>
       <c r="N41" t="n">
-        <v>639.9841549666695</v>
+        <v>639.9841549666681</v>
       </c>
       <c r="O41" t="n">
-        <v>545.3717914577265</v>
+        <v>545.3717914577253</v>
       </c>
       <c r="P41" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018825</v>
       </c>
       <c r="Q41" t="n">
-        <v>251.3739679419568</v>
+        <v>251.373967941956</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>144.525916666974</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>374.7022807871398</v>
       </c>
       <c r="L42" t="n">
-        <v>207.0960455179256</v>
+        <v>558.0125947793485</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>473.5441852458971</v>
       </c>
       <c r="N42" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>597.9628884470628</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>470.89602087847</v>
+        <v>470.8960208784692</v>
       </c>
       <c r="Q42" t="n">
-        <v>277.6279320079688</v>
+        <v>277.6279320079682</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>113.8670680274586</v>
+        <v>113.8670680274582</v>
       </c>
       <c r="L43" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112971</v>
       </c>
       <c r="M43" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336838</v>
       </c>
       <c r="N43" t="n">
-        <v>226.1418084175362</v>
+        <v>226.1418084175357</v>
       </c>
       <c r="O43" t="n">
-        <v>202.3123903803031</v>
+        <v>202.3123903803026</v>
       </c>
       <c r="P43" t="n">
-        <v>153.5719171373314</v>
+        <v>153.571917137331</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.94761179166381</v>
+        <v>25.94761179166353</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>196.9314106460804</v>
+        <v>196.9314106460803</v>
       </c>
       <c r="K44" t="n">
-        <v>438.775239419763</v>
+        <v>438.7752394197628</v>
       </c>
       <c r="L44" t="n">
-        <v>592.7949742418856</v>
+        <v>592.7949742418854</v>
       </c>
       <c r="M44" t="n">
-        <v>656.6562270596976</v>
+        <v>656.6562270596975</v>
       </c>
       <c r="N44" t="n">
-        <v>639.9841549666683</v>
+        <v>639.9841549666681</v>
       </c>
       <c r="O44" t="n">
-        <v>545.3717914577255</v>
+        <v>545.3717914577253</v>
       </c>
       <c r="P44" t="n">
-        <v>437.8095533018826</v>
+        <v>437.8095533018824</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.3739679419561</v>
+        <v>251.373967941956</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>20.10721346580864</v>
+        <v>144.525916666974</v>
       </c>
       <c r="K45" t="n">
-        <v>374.7022807871398</v>
+        <v>374.7022807871397</v>
       </c>
       <c r="L45" t="n">
-        <v>558.0125947793485</v>
+        <v>558.0125947793484</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>597.962888447062</v>
+        <v>473.5441852458971</v>
       </c>
       <c r="P45" t="n">
-        <v>470.8960208784694</v>
+        <v>470.8960208784692</v>
       </c>
       <c r="Q45" t="n">
-        <v>277.6279320079683</v>
+        <v>277.6279320079682</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,13 +38177,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>113.8670680274583</v>
+        <v>113.8670680274582</v>
       </c>
       <c r="L46" t="n">
-        <v>205.7176764112972</v>
+        <v>205.7176764112971</v>
       </c>
       <c r="M46" t="n">
-        <v>230.2761980336839</v>
+        <v>230.2761980336838</v>
       </c>
       <c r="N46" t="n">
         <v>226.1418084175357</v>
@@ -38195,7 +38195,7 @@
         <v>153.571917137331</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.94761179166357</v>
+        <v>25.94761179166352</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
